--- a/95_仕様書/AnarchyCars仕様書.xlsx
+++ b/95_仕様書/AnarchyCars仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DF9FF-8A8F-49A9-92DA-AC76AD1EA178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59886C48-7C28-48DE-BEF2-098A03B21E3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10752" windowHeight="8820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10752" windowHeight="8820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="全体構想" sheetId="8" r:id="rId3"/>
     <sheet name="関数処理" sheetId="6" r:id="rId4"/>
     <sheet name="データ" sheetId="7" r:id="rId5"/>
-    <sheet name="簡易仕様書" sheetId="1" r:id="rId6"/>
+    <sheet name="データ設定用" sheetId="14" r:id="rId6"/>
+    <sheet name="簡易仕様書" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="303">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -579,16 +580,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>関数処理</t>
-    <rPh sb="0" eb="2">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>衝突挙動の仕様</t>
     <rPh sb="0" eb="2">
       <t>ショウトツ</t>
@@ -1085,13 +1076,1136 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数処理リスト</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大まかな動き</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ろで3Dのマップを回しながら映す。
+カーソルを十字キーで上下で動かすことで文字列の横に移動し、ボタンを押すとカーソルの位置のモードが始まる。</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップを表示し、カメラを動かす処理</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴと文字テキストを表示させる処理</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動かして、移動する処理</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択処理</t>
+    <rPh sb="0" eb="4">
+      <t>センタクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のモードを選べる処理</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選んだモードを実行する処理</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用場所</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApartWall.png</t>
+  </si>
+  <si>
+    <t>ApartSide.jpg</t>
+  </si>
+  <si>
+    <t>ApartWall.png
+ApartSide.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apart001.x</t>
+  </si>
+  <si>
+    <t>アパート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若木</t>
+  </si>
+  <si>
+    <t>駐車場</t>
+  </si>
+  <si>
+    <t>コンビニ</t>
+  </si>
+  <si>
+    <t>ビル</t>
+  </si>
+  <si>
+    <t>体育館</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>ジム</t>
+  </si>
+  <si>
+    <t>スーパー</t>
+  </si>
+  <si>
+    <t>パン屋</t>
+  </si>
+  <si>
+    <t>市役所</t>
+  </si>
+  <si>
+    <t>カレー</t>
+  </si>
+  <si>
+    <t>とんかつ屋</t>
+  </si>
+  <si>
+    <t>ラーメン屋</t>
+  </si>
+  <si>
+    <t>車（主人公）</t>
+  </si>
+  <si>
+    <t>選挙カー</t>
+  </si>
+  <si>
+    <t>ガソリンスタンド</t>
+  </si>
+  <si>
+    <t>公園(砂場)</t>
+  </si>
+  <si>
+    <t>公園(トイレ)</t>
+  </si>
+  <si>
+    <t>公園(水道)</t>
+  </si>
+  <si>
+    <t>公園(ゴミ箱)</t>
+  </si>
+  <si>
+    <t>公園(ベンチ)</t>
+  </si>
+  <si>
+    <t>公園(街灯)</t>
+  </si>
+  <si>
+    <t>公園(鉄棒)</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>カジノ</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>石焼き芋屋</t>
+  </si>
+  <si>
+    <t>消防者or救急車</t>
+  </si>
+  <si>
+    <t>ネカフェ</t>
+  </si>
+  <si>
+    <t>パトカー</t>
+  </si>
+  <si>
+    <t>家002</t>
+  </si>
+  <si>
+    <t>橋本</t>
+  </si>
+  <si>
+    <t>柿崎</t>
+  </si>
+  <si>
+    <t>小原</t>
+    <rPh sb="0" eb="2">
+      <t>オバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>711.x</t>
+  </si>
+  <si>
+    <t>bill001.x, bill002.x</t>
+  </si>
+  <si>
+    <t>House.x</t>
+  </si>
+  <si>
+    <t>JoyFat.x</t>
+  </si>
+  <si>
+    <t>ARCS.x</t>
+  </si>
+  <si>
+    <t>Bakery.x</t>
+  </si>
+  <si>
+    <t>CityOffice.x</t>
+  </si>
+  <si>
+    <t>CurryShop.x</t>
+  </si>
+  <si>
+    <t>gas.x</t>
+  </si>
+  <si>
+    <t>sunaba001.x</t>
+  </si>
+  <si>
+    <t>Toilet001.x</t>
+  </si>
+  <si>
+    <t>suidou.x</t>
+  </si>
+  <si>
+    <t>gomibako001.x</t>
+  </si>
+  <si>
+    <t>benti001.x</t>
+  </si>
+  <si>
+    <t>gaitou001.x</t>
+  </si>
+  <si>
+    <t>tetubou001.x</t>
+  </si>
+  <si>
+    <t>firecar.x</t>
+  </si>
+  <si>
+    <t>policecar.x</t>
+  </si>
+  <si>
+    <t>House002.x</t>
+  </si>
+  <si>
+    <t>mado.png
+wall.jpg
+doar001.png</t>
+  </si>
+  <si>
+    <t>ARCS.png</t>
+  </si>
+  <si>
+    <t>CityOfficeFront.png</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>SuidouWall.jpg
+Suidouana.jpg</t>
+  </si>
+  <si>
+    <t>gomibako.png</t>
+  </si>
+  <si>
+    <t>House002.png</t>
+  </si>
+  <si>
+    <t>doar.jpg
+konbinimado.png
+mado.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bakery.png
+BakerySignboard.png
+BakeryFront.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>renga001.jpg
+suna001.jpg
+sunabakanban.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>konbinimado.png</t>
+  </si>
+  <si>
+    <t>doar.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mado.jpg</t>
+  </si>
+  <si>
+    <t>コンビニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若木</t>
+    <rPh sb="0" eb="2">
+      <t>ワカギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小原</t>
+    <rPh sb="0" eb="2">
+      <t>オバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柿崎</t>
+    <rPh sb="0" eb="2">
+      <t>カキザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酒井</t>
+    <rPh sb="0" eb="2">
+      <t>サカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋本</t>
+    <rPh sb="0" eb="2">
+      <t>ハシモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用場所</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wall.jpg</t>
+  </si>
+  <si>
+    <t>doar001.png</t>
+  </si>
+  <si>
+    <t>mado.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JOYFAT85.png
+JOYFATWall.png
+JOYFATFront.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JOYFAT85.png</t>
+  </si>
+  <si>
+    <t>JOYFATWall.png</t>
+  </si>
+  <si>
+    <t>JOYFATFront.png</t>
+  </si>
+  <si>
+    <t>BakerySignboard.png</t>
+  </si>
+  <si>
+    <t>BakeryFront.png</t>
+  </si>
+  <si>
+    <t>Bakery.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>renga001.jpg</t>
+  </si>
+  <si>
+    <t>suna001.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sunabakanban.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toire.png</t>
+  </si>
+  <si>
+    <t>toireman.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toirekabe.jpg</t>
+  </si>
+  <si>
+    <t>SuidouWall.jpg</t>
+  </si>
+  <si>
+    <t>Suidouana.jpg</t>
+  </si>
+  <si>
+    <t>ジム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パン屋</t>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市役所</t>
+    <rPh sb="0" eb="3">
+      <t>シヤクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園（砂場）</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スナバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園（トイレ）</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園（水道）</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公園（ゴミ箱）</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家002</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>toire.png
+toireman.png
+TOILET.png
+toirekabe.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOILET.png</t>
+  </si>
+  <si>
+    <t>建物</t>
+    <rPh sb="0" eb="2">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウンド</t>
+  </si>
+  <si>
+    <t>サウンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用場所</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージを受けたとき</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルで流す</t>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの通常時に流す</t>
+    <rPh sb="4" eb="6">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩きタバコ</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの流れ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+  </si>
+  <si>
+    <t>世界観</t>
+    <rPh sb="0" eb="3">
+      <t>セカイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア条件</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間制限内で門から町を脱出する。
+警察に攻撃されて鋼の心（耐久度）がなくなっていない。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイサツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハガネ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ココロ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>タイキュウド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色々な力（正義の鉄槌）を持っている車（を操縦してる人）。
+改造車やスピード違反など一見めちゃくちゃな行動をしているように見えるが、
+実はそれは町を良くするための行動。ダークヒーロー（正義の使者）</t>
+    <rPh sb="0" eb="2">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テッツイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウジュウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カイゾウシャ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イッケン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>シシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本は普通の町（jobi付近のイメージ）だが、
+派手な建物（目的物）など雰囲気を壊すものなどが多めにある。
+門が閉まるなど何かおかしい町のような雰囲気。</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フキン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タテモノ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モクテキブツ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>フンイキ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>フンイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪いやつをできるだけ倒し治安を良くすること。
+目印として悪い奴を倒していくとDarkLicenseが上がっていくが、
+それに伴い警察が増えてくる。</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チアン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>メジルシ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヤツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ケイサツ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やってはいけないことをする背徳感</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの概要説明</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの概要</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +2314,89 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1215,7 +2412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1772,16 +2969,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1791,20 +3019,31 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -1815,16 +3054,60 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1835,7 +3118,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1846,21 +3131,93 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1872,7 +3229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1922,9 +3279,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1943,12 +3298,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1962,39 +3311,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2003,198 +3334,928 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2377,84 +4438,18 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>967740</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2156460</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E115F23-5572-49CA-9AEB-2C0905A36FD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2339340" y="2766060"/>
-          <a:ext cx="8709660" cy="4198620"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>85849</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>162818</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>176491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>413273</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>94451</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>98828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2483,8 +4478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="383029" y="15643860"/>
-          <a:ext cx="6347224" cy="3817620"/>
+          <a:off x="463000" y="23629158"/>
+          <a:ext cx="6346454" cy="3855489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2497,13 +4492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>106679</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>475128</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2519,8 +4514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="406861" y="10836872"/>
-          <a:ext cx="6387479" cy="3685616"/>
+          <a:off x="403859" y="19598640"/>
+          <a:ext cx="7942729" cy="3992880"/>
           <a:chOff x="403860" y="10774680"/>
           <a:chExt cx="5021581" cy="3147060"/>
         </a:xfrm>
@@ -2848,15 +4843,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>168332</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>53032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426484</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>118937</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99965</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>141489</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2885,58 +4880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396240" y="20947380"/>
-          <a:ext cx="6347224" cy="3761297"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1287780</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED67C92-2940-48E0-9F42-5492A420DD38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3695700" y="2872740"/>
-          <a:ext cx="6484620" cy="3931920"/>
+          <a:off x="468514" y="21088850"/>
+          <a:ext cx="6346454" cy="3798935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2949,13 +4894,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>146243</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>53879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514692</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>206586</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2971,8 +4916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="446425" y="26439091"/>
-          <a:ext cx="6387479" cy="3685616"/>
+          <a:off x="443423" y="36538439"/>
+          <a:ext cx="7942729" cy="4107487"/>
           <a:chOff x="446425" y="26439091"/>
           <a:chExt cx="6387479" cy="3685616"/>
         </a:xfrm>
@@ -3141,13 +5086,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>537782</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>4925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3163,8 +5108,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="469515" y="31763854"/>
-          <a:ext cx="6387479" cy="3685616"/>
+          <a:off x="466513" y="42275067"/>
+          <a:ext cx="7942729" cy="4051838"/>
           <a:chOff x="446425" y="26439091"/>
           <a:chExt cx="6387479" cy="3685616"/>
         </a:xfrm>
@@ -3324,7 +5269,281 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>415290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5529B6-F184-4D82-8153-C9D9C52BF0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="8705850"/>
+          <a:ext cx="8709660" cy="4171950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1958340</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>529590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BD497F-2FDA-41B1-99A7-6510D4E31417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3329940" y="8820150"/>
+          <a:ext cx="6484620" cy="3897631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322541</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>533406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24CE7E6-E478-4771-B061-64E91648E20A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8176261" y="3139440"/>
+          <a:ext cx="2593300" cy="1943106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1234440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603512</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>368812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99487ACE-59B3-426C-B504-043FFB67FE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2903220" y="3192780"/>
+          <a:ext cx="3742952" cy="1725172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABD01A7A-B6FA-464A-A33D-B43728A3FE5A}" name="テーブル1" displayName="テーブル1" ref="B49:E82" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="B49:E82" xr:uid="{F3AA0930-3067-41E8-A37C-9BE36289CDFB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EF98FED7-8322-49BB-8F44-63C3D2A5D6E5}" name="使用場所" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E9650CDE-0AA4-4E1E-A9BC-25DAF6B97C5F}" name="テクスチャ" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{86FEBBDB-7D1E-4197-8BAF-0F28F5F7BE16}" name="ファイル名" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F5AC401B-8F1F-4B5C-A532-B8A5860A0BB4}" name="担当者" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48BAD1D2-2C32-43FC-AE11-0AE9C7B201AB}" name="テーブル2" displayName="テーブル2" ref="B12:G44" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="B12:G44" xr:uid="{B87C85D7-706B-42CD-BE1B-59D9082E2757}"/>
+  <sortState ref="B13:G44">
+    <sortCondition ref="B12:B44"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{735342FA-E213-400A-99D1-0A9323409652}" name="種類" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{C97D53C6-3350-4835-92C2-24BE75ECBC98}" name="モデル" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{11B45096-8C9F-4421-B84F-3BC2914F74F0}" name="ファイル名" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{2E6995DE-3E16-4EBE-9ED4-89D36B7AD03A}" name="サイズ" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{C5A041BE-C58A-4B2B-90BA-BCB7C440EF86}" name="テクスチャ名" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{60E09739-956F-43B1-9F6A-5EBA66E63049}" name="担当者" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B2B0A482-1B6C-42C0-A0C3-5ACC03AD9BE7}" name="テーブル14" displayName="テーブル14" ref="B86:F119" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B86:F119" xr:uid="{28A01047-DA31-4539-BF78-2C0112582BD3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F4DC4DED-D76B-4F1D-AC0F-DECD30C75F2C}" name="使用場所" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{AC368B03-58FD-423B-AE7D-9B0E81D51DEA}" name="種類" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0B2289FE-631E-48D8-A6CB-AB3861F6B09D}" name="内容" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5A01B459-BE91-466E-9F72-A7A0AA9DFB66}" name="ファイル名" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9259E21D-E6C8-4C63-BEEC-7839F4F7C9A5}" name="担当者" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0B9B8E4-BC46-4123-B92C-1276FAF96F36}" name="テーブル145" displayName="テーブル145" ref="B123:E156" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B123:E156" xr:uid="{CB67F8EC-A426-41BA-BE4D-83A242F93183}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{00024CA5-32F8-4D96-8657-B81551D20656}" name="種類" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7637C2B5-414C-42A5-9E4C-149FB8396537}" name="内容" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C08BBE2B-3DE6-456D-A275-D9D294ACE525}" name="テキスト名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{347819DE-808A-47C9-8841-BFFAABDF09EA}" name="担当者" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3592,7 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D17C61-747C-4C7D-AA2D-9E6CF5DE7431}">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I20" sqref="I2:K20"/>
     </sheetView>
   </sheetViews>
@@ -3687,44 +5906,44 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132"/>
     </row>
     <row r="13" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="80"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="134"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="139"/>
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="88"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
     </row>
     <row r="16" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="29" t="s">
@@ -3755,271 +5974,320 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB468003-60BD-4C9F-A82F-3ECBAC1187B5}">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.8984375" customWidth="1"/>
     <col min="4" max="4" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.69921875" customWidth="1"/>
     <col min="6" max="6" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.69921875" customWidth="1"/>
+    <col min="10" max="10" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:8" ht="22.8" thickBot="1">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:12" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:12" ht="22.8" thickBot="1">
+      <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="93"/>
-    </row>
-    <row r="3" spans="2:8" ht="22.2" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="D2" s="160"/>
+    </row>
+    <row r="3" spans="2:12" ht="22.2" customHeight="1">
+      <c r="B3" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="165"/>
+    </row>
+    <row r="4" spans="2:12" ht="19.8">
+      <c r="B4" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="103"/>
-    </row>
-    <row r="4" spans="2:8" ht="19.8">
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="167"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B5" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C5" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="169"/>
+    </row>
+    <row r="6" spans="2:12" ht="22.2" customHeight="1" thickBot="1"/>
+    <row r="7" spans="2:12" ht="33" thickBot="1">
+      <c r="B7" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="157"/>
+      <c r="D7" s="158"/>
+      <c r="F7" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="162"/>
+      <c r="H7" s="163"/>
+      <c r="J7" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+    </row>
+    <row r="8" spans="2:12" ht="22.8" thickBot="1">
+      <c r="B8" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="151"/>
+      <c r="F8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" ht="19.8">
+      <c r="B9" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="153"/>
+      <c r="F9" s="145" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="114"/>
+      <c r="H9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B10" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="105"/>
-    </row>
-    <row r="5" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B5" s="34" t="s">
+      <c r="D10" s="155"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B11" s="120"/>
+      <c r="C11" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="F12" s="146"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="110" t="s">
+        <v>281</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="2:12" ht="27" customHeight="1" thickBot="1">
+      <c r="B13" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="157"/>
+      <c r="D13" s="158"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="22.8" thickBot="1">
+      <c r="B14" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="151"/>
+      <c r="F14" s="145" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="117"/>
+      <c r="H14" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="20.399999999999999" thickBot="1">
+      <c r="B15" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="19.8">
+      <c r="B16" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="F16" s="145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="117"/>
+      <c r="H16" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="20.399999999999999" thickBot="1">
+      <c r="B17" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="107"/>
-    </row>
-    <row r="6" spans="2:8" ht="18.600000000000001" thickBot="1"/>
-    <row r="7" spans="2:8" ht="33" thickBot="1">
-      <c r="B7" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
-      <c r="F7" s="94" t="s">
+      <c r="D17" s="155"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="19.8">
+      <c r="B18" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="154" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="155"/>
+      <c r="F18" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.399999999999999" thickBot="1">
+      <c r="B19" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="149"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.399999999999999" thickBot="1">
+      <c r="F20" s="147"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19.8">
+      <c r="F21" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" spans="2:8" ht="22.8" thickBot="1">
-      <c r="B8" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="100"/>
-      <c r="F8" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="F9" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="19.8">
-      <c r="B10" s="33"/>
-      <c r="C10" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="111"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="112" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="113"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="F12" s="101"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="27" customHeight="1" thickBot="1">
-      <c r="B13" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="22.8" thickBot="1">
-      <c r="B14" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="F14" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="F16" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="111"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="111"/>
-      <c r="F18" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B19" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="113"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="F20" s="98"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="F21" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="32" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="20.399999999999999" thickBot="1">
+      <c r="F22" s="147"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="52" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="F22" s="98"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -4027,19 +6295,8 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4052,6 +6309,11 @@
     <hyperlink ref="B17" location="全体構想!A99" display="チュートリアル" xr:uid="{E6777443-ACC9-4C44-BFFF-B58BACAADBEE}"/>
     <hyperlink ref="B18" location="全体構想!A120" display="リザルト" xr:uid="{6B01A9BC-BED9-439E-A334-23D22EB162BB}"/>
     <hyperlink ref="B19" location="全体構想!A141" display="ランキング" xr:uid="{3DEFA05E-D6E8-4148-8906-D22BB0F12E99}"/>
+    <hyperlink ref="J9" location="データ!A12" display="ももも" xr:uid="{150EA116-7C03-4BF5-A3E1-1161D8F20312}"/>
+    <hyperlink ref="J10" location="データ!A49" display="テクスチャ" xr:uid="{4A1A044E-3C25-42AA-9EB9-7AD8CFDA05B5}"/>
+    <hyperlink ref="J11" location="データ!A86" display="サウンド" xr:uid="{71DDABF6-D2E7-4B3F-BB2C-05C9B461EF74}"/>
+    <hyperlink ref="J12" location="データ!A123" display="モーション" xr:uid="{4425AE42-A491-4FC5-BDA7-FD6EDE321610}"/>
+    <hyperlink ref="B10" location="全体構想!A40" display="各種画面" xr:uid="{2317AB73-32AC-462D-B750-14AFF6A8E7C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4059,303 +6321,322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF1C7A-5504-480A-90CB-2C6AED22388D}">
-  <dimension ref="B2:Q141"/>
+  <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J133" sqref="J133"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="3.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.3984375" customWidth="1"/>
     <col min="8" max="8" width="8.296875" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" customWidth="1"/>
     <col min="12" max="12" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="18" customHeight="1">
+    <row r="2" spans="2:17" ht="18" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="29.4" thickBot="1">
+      <c r="B3" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+    </row>
+    <row r="4" spans="2:17" ht="22.8" customHeight="1" thickBot="1">
+      <c r="B4" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="150" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="151"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="2:17" ht="22.8" customHeight="1" thickBot="1">
+      <c r="B5" s="201" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="195"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:17" ht="20.399999999999999" customHeight="1">
+      <c r="B6" s="200" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="196" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" ht="18.600000000000001" thickBot="1"/>
-    <row r="4" spans="2:17" ht="24.6" customHeight="1" thickBot="1">
-      <c r="B4" s="124" t="s">
+      <c r="D6" s="197"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="2:17" ht="22.8" thickBot="1">
+      <c r="B7" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="2:17" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B5" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="2:17" ht="18" customHeight="1">
-      <c r="B6" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="120"/>
-    </row>
-    <row r="7" spans="2:17" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="122"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="20"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-    </row>
-    <row r="9" spans="2:17" ht="18" customHeight="1" thickBot="1">
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-    </row>
-    <row r="10" spans="2:17" ht="32.4" customHeight="1" thickBot="1">
-      <c r="B10" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-    </row>
-    <row r="11" spans="2:17" ht="24.6" customHeight="1">
-      <c r="B11" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="19"/>
+      <c r="D7" s="199"/>
+    </row>
+    <row r="8" spans="2:17" ht="18" customHeight="1"/>
+    <row r="9" spans="2:17">
+      <c r="B9" s="20"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" ht="18" customHeight="1" thickBot="1">
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="2:17" ht="32.4" customHeight="1" thickBot="1">
+      <c r="B11" s="170" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+    </row>
+    <row r="12" spans="2:17" ht="24.6" customHeight="1">
+      <c r="B12" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="2:17" ht="18" customHeight="1">
-      <c r="B13" s="19"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="2:17" ht="24.6" customHeight="1">
+      <c r="B13" s="46"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="2:17" ht="18.600000000000001" customHeight="1">
-      <c r="B14" s="19"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="2:17" ht="24.6" customHeight="1">
+      <c r="B14" s="46"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="19"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+    </row>
+    <row r="15" spans="2:17" ht="43.8" customHeight="1">
+      <c r="B15" s="46"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="2:17" ht="51.6" customHeight="1" thickBot="1">
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="2:15" ht="43.8" customHeight="1" thickBot="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="C17" s="187" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="188" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="190"/>
       <c r="K17" s="3"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" ht="59.4" customHeight="1" thickBot="1">
       <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="C18" s="191" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="202" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
       <c r="K18" s="3"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" ht="57.6" customHeight="1" thickBot="1">
       <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="C19" s="192" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="205" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="207"/>
       <c r="K19" s="3"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" ht="40.799999999999997" customHeight="1" thickBot="1">
       <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="C20" s="192" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="205" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="207"/>
       <c r="K20" s="3"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" ht="60.6" customHeight="1" thickBot="1">
       <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="C21" s="193" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="205" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
       <c r="K21" s="3"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="3"/>
+    <row r="22" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -4364,110 +6645,71 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-    </row>
-    <row r="27" spans="2:15">
+    <row r="24" spans="2:15" ht="18" customHeight="1" thickBot="1"/>
+    <row r="25" spans="2:15" ht="32.4" customHeight="1" thickBot="1">
+      <c r="B25" s="170" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+    </row>
+    <row r="26" spans="2:15" ht="45.6">
+      <c r="B26" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="2:15" ht="17.399999999999999" customHeight="1">
       <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-    </row>
-    <row r="28" spans="2:15">
+    </row>
+    <row r="28" spans="2:15" ht="26.4" customHeight="1">
       <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-    </row>
-    <row r="29" spans="2:15" ht="18.600000000000001" thickBot="1">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+    </row>
+    <row r="29" spans="2:15" ht="19.2" customHeight="1">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -4476,127 +6718,146 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-    </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="32.4" customHeight="1" thickBot="1">
-      <c r="B32" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-    </row>
-    <row r="33" spans="2:15" ht="22.8" thickBot="1">
-      <c r="B33" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="100"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="44"/>
-    </row>
-    <row r="35" spans="2:15" ht="21" customHeight="1">
-      <c r="B35" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-    </row>
-    <row r="36" spans="2:15" ht="19.2" customHeight="1">
-      <c r="B36" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="111"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" ht="42" customHeight="1">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="111"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="2:15" ht="18.600000000000001" thickBot="1">
-      <c r="B38" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="127" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="113"/>
-    </row>
-    <row r="40" spans="2:15" ht="18.600000000000001" thickBot="1"/>
-    <row r="41" spans="2:15" ht="42" customHeight="1" thickBot="1">
-      <c r="B41" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-    </row>
-    <row r="42" spans="2:15" ht="18.600000000000001" thickBot="1">
-      <c r="B42" s="74" t="s">
-        <v>101</v>
-      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
@@ -4607,7 +6868,7 @@
       <c r="J42" s="20"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:15" ht="22.8" thickBot="1">
+    <row r="43" spans="2:15">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -4615,244 +6876,169 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="23"/>
+    </row>
+    <row r="48" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B48" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="2:15" ht="19.8" customHeight="1" thickBot="1">
+      <c r="B49" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="157"/>
+      <c r="D49" s="158"/>
+    </row>
+    <row r="50" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="B50" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="125"/>
+    </row>
+    <row r="51" spans="2:15" ht="23.4" customHeight="1">
+      <c r="B51" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="128"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+    </row>
+    <row r="52" spans="2:15" ht="45.6">
+      <c r="B52" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="126"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" spans="2:15" ht="45.6">
+      <c r="B53" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="126"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="126"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B55" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="127"/>
+    </row>
+    <row r="56" spans="2:15" ht="25.8" customHeight="1">
+      <c r="K56" s="39"/>
+    </row>
+    <row r="57" spans="2:15" ht="24.6" customHeight="1" thickBot="1">
+      <c r="K57" s="39"/>
+    </row>
+    <row r="58" spans="2:15" ht="46.2" thickBot="1">
+      <c r="B58" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="172"/>
+    </row>
+    <row r="59" spans="2:15" ht="18.600000000000001" thickBot="1">
+      <c r="B59" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:15" ht="22.8" thickBot="1">
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J43" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="J44" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="J45" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" ht="18.600000000000001" thickBot="1">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="2:15" ht="19.8" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="2:15" ht="18.600000000000001" customHeight="1">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="2:15" ht="23.4" customHeight="1" thickBot="1">
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-    </row>
-    <row r="59" spans="2:15" ht="18.600000000000001" thickBot="1"/>
-    <row r="60" spans="2:15" ht="46.2" thickBot="1">
-      <c r="B60" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="116"/>
-    </row>
-    <row r="61" spans="2:15" ht="18.600000000000001" thickBot="1">
-      <c r="B61" s="74" t="s">
-        <v>101</v>
-      </c>
+      <c r="J60" s="123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="19"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="2:15" ht="22.8" thickBot="1">
+      <c r="I61" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="45.6">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -4860,13 +7046,13 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J62" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K62" s="70"/>
+      <c r="I62" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="54"/>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" s="19"/>
@@ -4876,15 +7062,15 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="2:15">
+      <c r="I63" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="2:15" ht="18.600000000000001" thickBot="1">
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
@@ -4892,13 +7078,13 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="J64" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="K64" s="3"/>
+      <c r="I64" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="19"/>
@@ -4908,13 +7094,9 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="J65" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="K65" s="3"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="19"/>
@@ -4924,13 +7106,9 @@
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
-      <c r="I66" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="J66" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="K66" s="3"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="19"/>
@@ -4940,13 +7118,9 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
-      <c r="I67" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="J67" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="K67" s="3"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="19"/>
@@ -4956,15 +7130,11 @@
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J68" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="I68" s="20"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="2:11" ht="18.600000000000001" customHeight="1">
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
@@ -4972,15 +7142,11 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J69" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11">
+      <c r="I69" s="20"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="2:11" ht="19.2" customHeight="1">
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
@@ -4989,8 +7155,8 @@
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="19"/>
@@ -5001,8 +7167,8 @@
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="19"/>
@@ -5013,8 +7179,8 @@
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="19"/>
@@ -5025,8 +7191,8 @@
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="19"/>
@@ -5037,87 +7203,116 @@
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" ht="18.600000000000001" customHeight="1">
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" ht="19.2" customHeight="1">
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="20"/>
+    </row>
+    <row r="76" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="K76" s="20"/>
+    </row>
+    <row r="77" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B77" s="170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="171"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="171"/>
+      <c r="F77" s="171"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="171"/>
+      <c r="I77" s="171"/>
+      <c r="J77" s="172"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="23"/>
-    </row>
-    <row r="80" spans="2:11" ht="18.600000000000001" thickBot="1"/>
-    <row r="81" spans="2:11" ht="46.2" thickBot="1">
-      <c r="B81" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="115"/>
-      <c r="K81" s="116"/>
-    </row>
-    <row r="82" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B82" s="74" t="s">
-        <v>101</v>
-      </c>
+      <c r="B78" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="20"/>
+    </row>
+    <row r="79" spans="2:11" ht="22.8" thickBot="1">
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K79" s="20"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="45.6">
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J81" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="K81" s="54"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="19"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="2:11" ht="22.8" thickBot="1">
+      <c r="I82" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J82" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="K82" s="20"/>
+    </row>
+    <row r="83" spans="2:12" ht="22.2">
       <c r="B83" s="19"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -5125,15 +7320,15 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
-      <c r="I83" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J83" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="K83" s="70"/>
-    </row>
-    <row r="84" spans="2:11">
+      <c r="I83" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J83" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K83" s="59"/>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84" s="19"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -5141,15 +7336,15 @@
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="2:11">
+      <c r="I84" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="K84" s="20"/>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85" s="19"/>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -5157,15 +7352,15 @@
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
-      <c r="I85" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="J85" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="2:11">
+      <c r="I85" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J85" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="K85" s="20"/>
+    </row>
+    <row r="86" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -5173,15 +7368,15 @@
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="47" t="s">
+      <c r="I86" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J86" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="2:11">
+      <c r="J86" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K86" s="20"/>
+    </row>
+    <row r="87" spans="2:12">
       <c r="B87" s="19"/>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -5189,15 +7384,11 @@
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="2:11">
+      <c r="I87" s="20"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="20"/>
+    </row>
+    <row r="88" spans="2:12">
       <c r="B88" s="19"/>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -5205,15 +7396,11 @@
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="J88" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="2:11">
+      <c r="I88" s="20"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="20"/>
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89" s="19"/>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -5221,15 +7408,11 @@
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
-      <c r="I89" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="J89" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="I89" s="20"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="20"/>
+    </row>
+    <row r="90" spans="2:12">
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -5237,15 +7420,11 @@
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="J90" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="2:11">
+      <c r="I90" s="20"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="20"/>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91" s="19"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -5254,10 +7433,10 @@
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
       <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="2:11">
+      <c r="J91" s="3"/>
+      <c r="K91" s="20"/>
+    </row>
+    <row r="92" spans="2:12">
       <c r="B92" s="19"/>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
@@ -5266,10 +7445,10 @@
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
       <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="2:11">
+      <c r="J92" s="3"/>
+      <c r="K92" s="20"/>
+    </row>
+    <row r="93" spans="2:12">
       <c r="B93" s="19"/>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -5278,10 +7457,10 @@
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
       <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="2:11">
+      <c r="J93" s="3"/>
+      <c r="K93" s="20"/>
+    </row>
+    <row r="94" spans="2:12">
       <c r="B94" s="19"/>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -5290,116 +7469,115 @@
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
       <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="2:11">
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="2:12">
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="2:12">
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="20"/>
+    </row>
+    <row r="95" spans="2:12" ht="46.2" thickBot="1">
+      <c r="B95" s="21"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="54"/>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+    </row>
+    <row r="97" spans="2:12" ht="22.8" thickBot="1">
+      <c r="K97" s="20"/>
+      <c r="L97" s="59"/>
+    </row>
+    <row r="98" spans="2:12" ht="46.2" thickBot="1">
+      <c r="B98" s="170" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="171"/>
+      <c r="D98" s="171"/>
+      <c r="E98" s="171"/>
+      <c r="F98" s="171"/>
+      <c r="G98" s="171"/>
+      <c r="H98" s="171"/>
+      <c r="I98" s="171"/>
+      <c r="J98" s="172"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
     </row>
     <row r="99" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="23"/>
-    </row>
-    <row r="100" spans="2:12">
+      <c r="B99" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+    </row>
+    <row r="100" spans="2:12" ht="22.8" thickBot="1">
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="2:12" ht="22.8" thickBot="1">
+      <c r="I100" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="L100" s="20"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
-      <c r="I101" s="68"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="69"/>
-    </row>
-    <row r="102" spans="2:12" ht="46.2" thickBot="1">
-      <c r="B102" s="114" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="115"/>
-      <c r="G102" s="115"/>
-      <c r="H102" s="115"/>
-      <c r="I102" s="115"/>
-      <c r="J102" s="115"/>
-      <c r="K102" s="116"/>
-      <c r="L102" s="60"/>
-    </row>
-    <row r="103" spans="2:12" ht="18.600000000000001" thickBot="1">
-      <c r="B103" s="74" t="s">
-        <v>101</v>
-      </c>
+      <c r="I101" s="49"/>
+      <c r="J101" s="15"/>
+      <c r="L101" s="20"/>
+    </row>
+    <row r="102" spans="2:12" ht="45.6">
+      <c r="B102" s="19"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="20"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="19"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="3"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="20"/>
       <c r="L103" s="20"/>
     </row>
-    <row r="104" spans="2:12" ht="22.8" thickBot="1">
+    <row r="104" spans="2:12" ht="22.2">
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
@@ -5407,14 +7585,10 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
-      <c r="I104" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J104" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K104" s="70"/>
-      <c r="L104" s="69"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="20"/>
     </row>
     <row r="105" spans="2:12">
       <c r="B105" s="19"/>
@@ -5424,14 +7598,9 @@
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
-      <c r="I105" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="J105" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="K105" s="3"/>
-      <c r="L105" s="20"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="55"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="2:12">
       <c r="B106" s="19"/>
@@ -5441,14 +7610,9 @@
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
-      <c r="I106" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="J106" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="K106" s="3"/>
-      <c r="L106" s="20"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="55"/>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B107" s="19"/>
@@ -5458,14 +7622,9 @@
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J107" s="134" t="s">
-        <v>110</v>
-      </c>
-      <c r="K107" s="3"/>
-      <c r="L107" s="20"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="20"/>
     </row>
     <row r="108" spans="2:12">
       <c r="B108" s="19"/>
@@ -5476,9 +7635,8 @@
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="20"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="2:12">
       <c r="B109" s="19"/>
@@ -5488,8 +7646,9 @@
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="2:12">
       <c r="B110" s="19"/>
@@ -5499,8 +7658,9 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="2:12">
       <c r="B111" s="19"/>
@@ -5510,8 +7670,9 @@
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="2:12">
       <c r="B112" s="19"/>
@@ -5521,7 +7682,9 @@
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
-      <c r="K112" s="3"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" s="19"/>
@@ -5532,8 +7695,8 @@
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
       <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="20"/>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="19"/>
@@ -5544,8 +7707,8 @@
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="19"/>
@@ -5556,99 +7719,130 @@
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="2:11">
-      <c r="B116" s="19"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B116" s="21"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
       <c r="J117" s="20"/>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="19"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="2:11" ht="22.8" thickBot="1">
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="19"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="20"/>
-      <c r="K119" s="3"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="20"/>
+    </row>
+    <row r="119" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B119" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="171"/>
+      <c r="D119" s="171"/>
+      <c r="E119" s="171"/>
+      <c r="F119" s="171"/>
+      <c r="G119" s="171"/>
+      <c r="H119" s="171"/>
+      <c r="I119" s="171"/>
+      <c r="J119" s="172"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B120" s="21"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="23"/>
-    </row>
-    <row r="122" spans="2:11" ht="18.600000000000001" thickBot="1"/>
-    <row r="123" spans="2:11" ht="46.2" thickBot="1">
-      <c r="B123" s="114" t="s">
+      <c r="B120" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C123" s="115"/>
-      <c r="D123" s="115"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="115"/>
-      <c r="G123" s="115"/>
-      <c r="H123" s="115"/>
-      <c r="I123" s="115"/>
-      <c r="J123" s="115"/>
-      <c r="K123" s="116"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="20"/>
+    </row>
+    <row r="121" spans="2:11" ht="22.8" thickBot="1">
+      <c r="B121" s="19"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K121" s="20"/>
+    </row>
+    <row r="122" spans="2:11" ht="22.2">
+      <c r="B122" s="19"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J122" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="K122" s="59"/>
+    </row>
+    <row r="123" spans="2:11" ht="45.6">
+      <c r="B123" s="19"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J123" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K123" s="44"/>
     </row>
     <row r="124" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B124" s="74" t="s">
-        <v>101</v>
-      </c>
+      <c r="B124" s="19"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="3"/>
-    </row>
-    <row r="125" spans="2:11" ht="22.8" thickBot="1">
+      <c r="I124" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="J124" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="2:11" ht="22.2">
       <c r="B125" s="19"/>
       <c r="C125" s="20"/>
       <c r="D125" s="20"/>
@@ -5656,13 +7850,9 @@
       <c r="F125" s="20"/>
       <c r="G125" s="20"/>
       <c r="H125" s="20"/>
-      <c r="I125" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J125" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="K125" s="70"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="59"/>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="19"/>
@@ -5672,13 +7862,9 @@
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
-      <c r="I126" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="J126" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K126" s="3"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="20"/>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="19"/>
@@ -5688,15 +7874,11 @@
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
-      <c r="I127" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="J127" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="I127" s="20"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="2:11">
       <c r="B128" s="19"/>
       <c r="C128" s="20"/>
       <c r="D128" s="20"/>
@@ -5704,13 +7886,9 @@
       <c r="F128" s="20"/>
       <c r="G128" s="20"/>
       <c r="H128" s="20"/>
-      <c r="I128" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J128" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="K128" s="3"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="19"/>
@@ -5721,8 +7899,8 @@
       <c r="G129" s="20"/>
       <c r="H129" s="20"/>
       <c r="I129" s="20"/>
-      <c r="J129" s="133"/>
-      <c r="K129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="19"/>
@@ -5732,9 +7910,9 @@
       <c r="F130" s="20"/>
       <c r="G130" s="20"/>
       <c r="H130" s="20"/>
-      <c r="I130" s="135"/>
-      <c r="J130" s="20"/>
-      <c r="K130" s="3"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="20"/>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" s="19"/>
@@ -5745,8 +7923,8 @@
       <c r="G131" s="20"/>
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
-      <c r="J131" s="20"/>
-      <c r="K131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="19"/>
@@ -5756,9 +7934,9 @@
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
       <c r="H132" s="20"/>
-      <c r="I132" s="135"/>
-      <c r="J132" s="20"/>
-      <c r="K132" s="3"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="20"/>
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="19"/>
@@ -5769,8 +7947,8 @@
       <c r="G133" s="20"/>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="20"/>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="19"/>
@@ -5781,8 +7959,8 @@
       <c r="G134" s="20"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="20"/>
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="19"/>
@@ -5793,8 +7971,8 @@
       <c r="G135" s="20"/>
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
-      <c r="J135" s="20"/>
-      <c r="K135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="20"/>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" s="19"/>
@@ -5805,106 +7983,330 @@
       <c r="G136" s="20"/>
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
-      <c r="J136" s="20"/>
-      <c r="K136" s="3"/>
-    </row>
-    <row r="137" spans="2:11">
-      <c r="B137" s="19"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B137" s="21"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+      <c r="E137" s="22"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="20"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="19"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="20"/>
-      <c r="K138" s="3"/>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="19"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="20"/>
-      <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="19"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="3"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B140" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" s="171"/>
+      <c r="D140" s="171"/>
+      <c r="E140" s="171"/>
+      <c r="F140" s="171"/>
+      <c r="G140" s="171"/>
+      <c r="H140" s="171"/>
+      <c r="I140" s="171"/>
+      <c r="J140" s="172"/>
+      <c r="K140" s="20"/>
     </row>
     <row r="141" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B141" s="21"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="22"/>
-      <c r="K141" s="23"/>
+      <c r="B141" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="2:11" ht="22.8" thickBot="1">
+      <c r="B142" s="19"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J142" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="19"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="J143" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="2:11" ht="45.6">
+      <c r="B144" s="19"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
+      <c r="I144" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J144" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="K144" s="44"/>
+    </row>
+    <row r="145" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B145" s="19"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J145" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="2:11" ht="22.2">
+      <c r="B146" s="19"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="122"/>
+      <c r="K146" s="59"/>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="19"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="B148" s="19"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="B149" s="19"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="71"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="19"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="B151" s="19"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+      <c r="E151" s="20"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="B152" s="19"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="B153" s="19"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="2:11">
+      <c r="B154" s="19"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="B155" s="19"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="2:11">
+      <c r="B156" s="19"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+      <c r="E156" s="20"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="B157" s="19"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B158" s="21"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="E158" s="22"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="22"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="2:11">
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B123:K123"/>
-    <mergeCell ref="B81:K81"/>
-    <mergeCell ref="B102:K102"/>
+  <mergeCells count="18">
+    <mergeCell ref="D21:J21"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B98:J98"/>
+    <mergeCell ref="B119:J119"/>
+    <mergeCell ref="B140:J140"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B2" location="リスト!A1" display="全体リスト" xr:uid="{09CBE198-82AE-49AB-A026-53F0AB8DBB77}"/>
-    <hyperlink ref="B11" location="全体構想!A1" display="リスト" xr:uid="{E2B22933-AD76-4FEB-B84F-93F4ED5B00F2}"/>
+    <hyperlink ref="B12" location="全体構想!A1" display="リスト" xr:uid="{E2B22933-AD76-4FEB-B84F-93F4ED5B00F2}"/>
     <hyperlink ref="B6" location="全体構想!A29" display="ゲームの流れ" xr:uid="{ED2026F4-7E8A-4FE0-97A6-AC921EC6931B}"/>
-    <hyperlink ref="B34" location="全体構想!A58" display="タイトル" xr:uid="{9BD4DACE-C029-48C2-A076-3690D005D30C}"/>
-    <hyperlink ref="B35" location="全体構想!A78" display="ゲーム" xr:uid="{91A85D5C-BF6F-4E02-B027-78124242D0D0}"/>
-    <hyperlink ref="B36" location="全体構想!A99" display="チュートリアル" xr:uid="{18216292-634A-4A82-9AF8-EBF957E283EF}"/>
+    <hyperlink ref="B51" location="全体構想!A58" display="タイトル" xr:uid="{9BD4DACE-C029-48C2-A076-3690D005D30C}"/>
+    <hyperlink ref="B52" location="全体構想!A78" display="ゲーム" xr:uid="{91A85D5C-BF6F-4E02-B027-78124242D0D0}"/>
+    <hyperlink ref="B53" location="全体構想!A99" display="チュートリアル" xr:uid="{18216292-634A-4A82-9AF8-EBF957E283EF}"/>
     <hyperlink ref="B7" location="全体構想!A40" display="各種画面" xr:uid="{7CE10E5F-6571-442A-9F1D-DAF55AAE3A6A}"/>
-    <hyperlink ref="B37" location="全体構想!A120" display="リザルト" xr:uid="{D0D35FAB-9E03-4D0D-A867-44676C459946}"/>
-    <hyperlink ref="B38" location="全体構想!A141" display="ランキング" xr:uid="{D4CAF1DC-9896-4BA1-91DF-506E7E5D93E4}"/>
-    <hyperlink ref="B31" location="全体構想!B4" display="リスト" xr:uid="{7BA834AA-4F57-4670-BC1F-9AF2EFA36A94}"/>
-    <hyperlink ref="I31" location="全体構想!B4" display="リスト" xr:uid="{895A0615-98A0-4412-86AA-092CF99E41ED}"/>
-    <hyperlink ref="B42" location="全体構想!A31" display="画面リスト" xr:uid="{45E83622-3713-44DB-914E-A5B65E18782A}"/>
-    <hyperlink ref="B61" location="全体構想!A31" display="画面リスト" xr:uid="{851030E7-D7D1-4AA0-92A9-109C6DEEEDD7}"/>
-    <hyperlink ref="B82" location="全体構想!A31" display="画面リスト" xr:uid="{75372C0A-8A80-4CF1-BB6B-4703393C78FD}"/>
-    <hyperlink ref="B103" location="全体構想!A31" display="画面リスト" xr:uid="{9CC2B359-84F5-4DF1-82D7-BF3620FC5E0B}"/>
-    <hyperlink ref="B124" location="全体構想!A31" display="画面リスト" xr:uid="{063D1C77-8C45-4DB7-A9D9-96C90F5AC6B6}"/>
+    <hyperlink ref="B54" location="全体構想!A120" display="リザルト" xr:uid="{D0D35FAB-9E03-4D0D-A867-44676C459946}"/>
+    <hyperlink ref="B55" location="全体構想!A141" display="ランキング" xr:uid="{D4CAF1DC-9896-4BA1-91DF-506E7E5D93E4}"/>
+    <hyperlink ref="B59" location="全体構想!A31" display="画面リスト" xr:uid="{45E83622-3713-44DB-914E-A5B65E18782A}"/>
+    <hyperlink ref="B78" location="全体構想!A31" display="画面リスト" xr:uid="{851030E7-D7D1-4AA0-92A9-109C6DEEEDD7}"/>
+    <hyperlink ref="B99" location="全体構想!A31" display="画面リスト" xr:uid="{75372C0A-8A80-4CF1-BB6B-4703393C78FD}"/>
+    <hyperlink ref="B120" location="全体構想!A31" display="画面リスト" xr:uid="{9CC2B359-84F5-4DF1-82D7-BF3620FC5E0B}"/>
+    <hyperlink ref="B141" location="全体構想!A31" display="画面リスト" xr:uid="{063D1C77-8C45-4DB7-A9D9-96C90F5AC6B6}"/>
+    <hyperlink ref="B48" location="全体構想!A1" display="リスト" xr:uid="{A8447AFA-E95F-4865-B24C-4365A98B626A}"/>
+    <hyperlink ref="B26" location="全体構想!A1" display="リスト" xr:uid="{B76EB5E4-F4FE-4410-9A10-08759D1FE7BE}"/>
+    <hyperlink ref="B5" location="全体構想!A19" display="ゲームの概要" xr:uid="{A87EF8B4-DF60-4B59-B3B4-5F867977DC75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5914,39 +8316,2038 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE410A00-953D-4970-82BB-A8901ADF3948}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:11" ht="33" thickBot="1">
+      <c r="B2" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+    </row>
+    <row r="3" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="176" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="177"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="177"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="177"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B8" s="178"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="176" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="178"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B12" s="178"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="177"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B15" s="178"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="176" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B17" s="178"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="21" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B21" s="170" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="173" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="174" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="173"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="173" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="173"/>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="173"/>
+      <c r="C28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="173"/>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="173"/>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:K24"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F04AE7-E68C-4947-B5A3-0C822BCC7791}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:J156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1">
+      <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="33" thickBot="1">
+      <c r="B3" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="73"/>
+    </row>
+    <row r="4" spans="2:10" ht="22.8" thickBot="1">
+      <c r="B4" s="106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="22.2">
+      <c r="B5" s="108" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="22.2">
+      <c r="B6" s="111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="22.2">
+      <c r="B7" s="111" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="22.8" thickBot="1">
+      <c r="B8" s="112" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="10" spans="2:10" ht="46.2" thickBot="1">
+      <c r="B10" s="170" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="22.8" thickBot="1">
+      <c r="B12" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30">
+      <c r="B17" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="75">
+        <v>4</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45.6">
+      <c r="B19" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="75">
+        <v>5</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="45.6">
+      <c r="B22" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="45.6">
+      <c r="B23" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="45.6">
+      <c r="B25" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="75">
+        <v>3</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="75">
+        <v>3</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="75"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="45.6">
+      <c r="B31" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="60.6">
+      <c r="B32" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="30.6">
+      <c r="B33" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F34" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="92"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="92"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="92"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="96"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="97"/>
+    </row>
+    <row r="46" spans="2:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="47" spans="2:10" ht="46.2" thickBot="1">
+      <c r="B47" s="170" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="172"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="22.8" thickBot="1">
+      <c r="B49" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="91"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="92"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="92"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="92"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="92"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="92"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="92"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="92"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="92"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="92"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="92"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="92"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="92"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="92"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" s="92"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="92"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="92"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" s="92"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" s="92"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="92"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="92"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E71" s="92"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" s="92"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" s="92"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="E74" s="92"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="92"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="92"/>
+    </row>
+    <row r="77" spans="2:5" ht="21" customHeight="1">
+      <c r="B77" s="90"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="E77" s="92"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="90"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="92"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="90"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="92"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="90"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="92"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="90"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="92"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="96"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="97"/>
+    </row>
+    <row r="83" spans="2:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="84" spans="2:10" ht="46.2" thickBot="1">
+      <c r="B84" s="170" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
+      <c r="G84" s="171"/>
+      <c r="H84" s="171"/>
+      <c r="I84" s="171"/>
+      <c r="J84" s="172"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="22.8" thickBot="1">
+      <c r="B86" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="E87" s="86"/>
+      <c r="F87" s="91"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="87"/>
+      <c r="F88" s="92"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="88"/>
+      <c r="F89" s="92"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="92"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="90"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="74"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="92"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="92"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="92"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="90"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="92"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="92"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="92"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="90"/>
+      <c r="C97" s="90"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="92"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="90"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="74"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="92"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="92"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="90"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="92"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="90"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="92"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="92"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="90"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="92"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="92"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="92"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="90"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="92"/>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="90"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="88"/>
+      <c r="F107" s="92"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="92"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="87"/>
+      <c r="F109" s="92"/>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="90"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="74"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="92"/>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="92"/>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="90"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="92"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="90"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="92"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="90"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="74"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="92"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="90"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="92"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="90"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="92"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="92"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="92"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="96"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="97"/>
+    </row>
+    <row r="120" spans="2:10" ht="18.600000000000001" thickBot="1"/>
+    <row r="121" spans="2:10" ht="39" customHeight="1" thickBot="1">
+      <c r="B121" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="171"/>
+      <c r="D121" s="171"/>
+      <c r="E121" s="171"/>
+      <c r="F121" s="171"/>
+      <c r="G121" s="171"/>
+      <c r="H121" s="171"/>
+      <c r="I121" s="171"/>
+      <c r="J121" s="172"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="22.8" thickBot="1">
+      <c r="B123" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E123" s="95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="86"/>
+      <c r="E124" s="91"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="90"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="87"/>
+      <c r="E125" s="92"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="90"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="88"/>
+      <c r="E126" s="92"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="90"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="87"/>
+      <c r="E127" s="92"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="90"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="87"/>
+      <c r="E128" s="92"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="90"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="92"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="90"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="87"/>
+      <c r="E130" s="92"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="90"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="87"/>
+      <c r="E131" s="92"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="90"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="87"/>
+      <c r="E132" s="92"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="90"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="87"/>
+      <c r="E133" s="92"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="90"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="87"/>
+      <c r="E134" s="92"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="90"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="92"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="90"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="92"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="90"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="87"/>
+      <c r="E137" s="92"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="90"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="87"/>
+      <c r="E138" s="92"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="90"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="87"/>
+      <c r="E139" s="92"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="90"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="87"/>
+      <c r="E140" s="92"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="90"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="87"/>
+      <c r="E141" s="92"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="90"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="87"/>
+      <c r="E142" s="92"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="90"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="87"/>
+      <c r="E143" s="92"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="90"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="92"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="90"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="92"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="90"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="87"/>
+      <c r="E146" s="92"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="90"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="87"/>
+      <c r="E147" s="92"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="90"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="87"/>
+      <c r="E148" s="92"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="90"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="87"/>
+      <c r="E149" s="92"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="90"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="87"/>
+      <c r="E150" s="92"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="90"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="92"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="90"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="92"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="90"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="92"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="90"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="92"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="90"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="92"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="96"/>
+      <c r="C156" s="80"/>
+      <c r="D156" s="81"/>
+      <c r="E156" s="97"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B121:J121"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="リスト!A1" display="全体リスト" xr:uid="{5C90E340-0D75-40B3-83A2-2DA49D6558DB}"/>
+    <hyperlink ref="B5" location="データ!A12" display="ももも" xr:uid="{15678EB4-C7BC-43A8-991D-EB3EC4BC3CB4}"/>
+    <hyperlink ref="B6" location="データ!A49" display="テクスチャ" xr:uid="{82B5BB96-93E9-44BB-B205-697A59E20F72}"/>
+    <hyperlink ref="B7" location="データ!A86" display="サウンド" xr:uid="{B96157EB-AABD-4ACE-9413-012BF6E1F8CF}"/>
+    <hyperlink ref="B8" location="データ!A123" display="モーション" xr:uid="{CF3FA319-ACA1-40C1-AA14-E2DE1143AF3A}"/>
+    <hyperlink ref="B11" location="データ!A1" display="リスト" xr:uid="{FDF92C80-19F3-45B9-88DE-400ED84BD434}"/>
+    <hyperlink ref="B48" location="データ!A1" display="リスト" xr:uid="{6F56416C-115F-47D6-99F4-DC2B89D523AB}"/>
+    <hyperlink ref="B85" location="データ!A1" display="リスト" xr:uid="{C30FF1AB-A92E-4C46-9BC0-EE138A709BD4}"/>
+    <hyperlink ref="B122" location="データ!A1" display="リスト" xr:uid="{12B61302-9295-416A-8EB8-7A319F71C62E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE201607-FDAE-44A1-AF9D-EA56326D75BE}">
+          <x14:formula1>
+            <xm:f>データ設定用!$C$4:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B50:B82</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{697AB817-5C18-4C25-AE04-1C5546C0C179}">
+          <x14:formula1>
+            <xm:f>データ設定用!$D$4:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C87:C119</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{07B69F25-A5A9-4B40-8C5F-16D9CBA4E962}">
+          <x14:formula1>
+            <xm:f>データ設定用!$E$4:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B87:B119</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9AC0D1F4-305D-46DA-9604-E13BED1E4DB5}">
+          <x14:formula1>
+            <xm:f>データ設定用!$B$11:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E50:E82 G13:G44 F87:F119 E124:E156</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BC7D138-2E16-486B-BB5A-49ECCEC653D0}">
+          <x14:formula1>
+            <xm:f>データ設定用!$F$4:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B124:B156</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E3C87-DD57-4D76-AAF0-AE2B95849F8F}">
+  <dimension ref="B1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="183"/>
+      <c r="F2" s="185" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B3" s="104" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="184" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="186" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1"/>
+    <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5958,10 +10359,10 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="180"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5970,8 +10371,8 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>

--- a/95_仕様書/AnarchyCars仕様書.xlsx
+++ b/95_仕様書/AnarchyCars仕様書.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59886C48-7C28-48DE-BEF2-098A03B21E3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A1093D-981B-43A3-B4F6-EA8EB4C4DE94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10752" windowHeight="8820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10752" windowHeight="8820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
     <sheet name="リスト" sheetId="13" r:id="rId2"/>
     <sheet name="全体構想" sheetId="8" r:id="rId3"/>
-    <sheet name="関数処理" sheetId="6" r:id="rId4"/>
-    <sheet name="データ" sheetId="7" r:id="rId5"/>
-    <sheet name="データ設定用" sheetId="14" r:id="rId6"/>
-    <sheet name="簡易仕様書" sheetId="1" r:id="rId7"/>
+    <sheet name="タイトル仕様" sheetId="15" r:id="rId4"/>
+    <sheet name="リザルト仕様" sheetId="16" r:id="rId5"/>
+    <sheet name="ランキング仕様" sheetId="17" r:id="rId6"/>
+    <sheet name="関数処理" sheetId="6" r:id="rId7"/>
+    <sheet name="データ" sheetId="7" r:id="rId8"/>
+    <sheet name="データ設定用" sheetId="14" r:id="rId9"/>
+    <sheet name="簡易仕様書" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="370">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -1023,10 +1026,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PressEnter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>町の背景</t>
     <rPh sb="0" eb="1">
       <t>マチ</t>
@@ -1152,57 +1151,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3Dマップを表示し、カメラを動かす処理</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2Dポリゴン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロゴと文字テキストを表示させる処理</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動かして、移動する処理</t>
-    <rPh sb="0" eb="1">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1213,38 +1162,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複数のモードを選べる処理</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選んだモードを実行する処理</t>
-    <rPh sb="0" eb="1">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2199,6 +2122,784 @@
   </si>
   <si>
     <t>ゲームの概要</t>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleLogo000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.h名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.cpp名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleTextGameStart000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始
+テキスト</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル
+テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleTextTutorial000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング
+テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン・選択処理</t>
+    <rPh sb="7" eb="11">
+      <t>センタクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッド入力処理</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用cpp</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[gamepad_xinput]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果分岐処理</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3D背景</t>
+    <rPh sb="2" eb="4">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[game_stage]
+([light],[field],[wall],[shadow],
+[player],[enemy],[object])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[camera]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップ・カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleTextRanking000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TitleCursor000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームステージのモデル諸々</t>
+    <rPh sb="11" eb="13">
+      <t>モロモロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップを生成。
+カメラを設置して周りを見渡すように回す。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ミワタ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果によって（二種類）どちらかの3Dマップを生成。
+カメラを設置して周りを見渡すように回す。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ニシュルイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ミワタ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン・選択処理・画面遷移・ゲームパッド入力処理</t>
+    <rPh sb="7" eb="11">
+      <t>センタクショリ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップ・カメラ・結果分岐処理</t>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ブンキショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultTextWin000.png
+ResultTextLose000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン・結果分岐処理</t>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ブンキショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果テキスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押せ押せ
+テキスト</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultText000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン・選択処理・画面遷移・ゲームパッド入力処理</t>
+    <rPh sb="7" eb="11">
+      <t>センタクショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ニュウリョクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result.h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景の3Dマップを結果分岐により二種類どちからを表示させ、カメラで見渡す。
+結果によってのテキストとボタン押せ押せテキストを設置する。
+ボタンを押すとランキング画面に遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニシュルイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミワタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム結果（スコア）によって分岐。</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押してランキングに遷移。</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップを見るカメラを作る。</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dマップを表示させる。</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームパッドで入力する。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のモードを選べる。</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選んだモードを実行する。</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ranking]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[result]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[main],[fade],[ranking]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[title]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[main],[fade],
+[title],[tutorial],[ranking]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン押せ押せテキスト</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字テクスチャを表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字と数字テクスチャを表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ranking],[value]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア取得</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム中で獲得したスコアを表示。</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ranking],[score]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RankingNumber000.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去のランキングと現在のスコアをソート。</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の
+プレイスコア</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultText001.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン・外部ファイル・スコア取得・ソート処理</t>
+    <rPh sb="7" eb="9">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dポリゴン・画面遷移・ゲームパッド入力処理</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ニュウリョクショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部ファイルから過去のランキングデータを
+取得。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のスコアを取得して保存。
+外部ファイルから過去のランキングを5つ取得。
+現在のスコアと過去のランキングのスコアを取得してソート。
+2Dポリゴンを（8行（数値）×5列（最大数）分）用意して、
+数値のテクスチャを貼る。
+現在のスコアがランキングINの場合、その場所を常に点滅。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="85" eb="88">
+      <t>サイダイスウ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dのポリゴンを用意して数値のテクスチャを貼る。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dのポリゴンを用意して文字テクスチャを貼る。
+常に点滅させる。
+ボタンを押すとランキング画面に遷移。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dのポリゴンを用意して文字テクスチャを貼る。
+テクスチャを結果によって変更。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dのポリゴンを用意してロゴテクスチャを貼る。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dのポリゴンを用意して文字テクスチャを貼る。
+選択されているときに点滅させる。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴと画像と文字テキストを表示させる。</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2Dのポリゴンを用意して画像テクスチャを貼る。
+十字ボタンを押すと各テキストの横に移動（選択処理）。
+Aボタンを押すと選択している処理を実行。</t>
+    <rPh sb="8" eb="10">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>センタクショリ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2412,7 +3113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -3224,12 +3925,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3485,160 +4313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
@@ -3648,15 +4323,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3665,29 +4331,161 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3697,14 +4495,395 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4441,15 +5620,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162818</xdr:colOff>
+      <xdr:colOff>444758</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>176491</xdr:rowOff>
+      <xdr:rowOff>82105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>94451</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>98828</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>403628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4478,8 +5657,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="463000" y="23629158"/>
-          <a:ext cx="6346454" cy="3855489"/>
+          <a:off x="741938" y="24367045"/>
+          <a:ext cx="7495282" cy="4253443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4491,15 +5670,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106679</xdr:colOff>
+      <xdr:colOff>121919</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>475128</xdr:colOff>
+      <xdr:colOff>490368</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4514,8 +5693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="403859" y="19598640"/>
-          <a:ext cx="7942729" cy="3992880"/>
+          <a:off x="419099" y="19431000"/>
+          <a:ext cx="7942729" cy="3741420"/>
           <a:chOff x="403860" y="10774680"/>
           <a:chExt cx="5021581" cy="3147060"/>
         </a:xfrm>
@@ -4843,15 +6022,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>168332</xdr:colOff>
+      <xdr:colOff>358832</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>53032</xdr:rowOff>
+      <xdr:rowOff>56986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99965</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>141489</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>80530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4880,206 +6059,14 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="468514" y="21088850"/>
-          <a:ext cx="6346454" cy="3798935"/>
+          <a:off x="656012" y="30201706"/>
+          <a:ext cx="7505008" cy="4153584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>146243</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>53879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514692</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>206586</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5B9D57-F73E-4158-AA5E-B0868F2D761E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="443423" y="36538439"/>
-          <a:ext cx="7942729" cy="4107487"/>
-          <a:chOff x="446425" y="26439091"/>
-          <a:chExt cx="6387479" cy="3685616"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6457276E-98FC-4D48-90D7-D748EE722A3B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="446425" y="26439091"/>
-            <a:ext cx="6387479" cy="3685616"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>リザルト背景（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
-              <a:t>3D</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3F2FA2-E62A-473D-9132-E161603CF9F4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1631758" y="28640429"/>
-            <a:ext cx="3971636" cy="523394"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>テキスト</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539A165B-E740-4A9C-AFD8-D313E335EB9D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1614825" y="29393191"/>
-            <a:ext cx="3971636" cy="523394"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent3"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>PressEnter</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5108,7 +6095,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="466513" y="42275067"/>
+          <a:off x="466513" y="41642607"/>
           <a:ext cx="7942729" cy="4051838"/>
           <a:chOff x="446425" y="26439091"/>
           <a:chExt cx="6387479" cy="3685616"/>
@@ -5346,7 +6333,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>1607820</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>182881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5483,6 +6470,2537 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146243</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>53879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514692</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>206586</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA57F218-81F7-40BA-994B-F4003EFDC367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="443423" y="35905979"/>
+          <a:ext cx="7942729" cy="4107487"/>
+          <a:chOff x="443423" y="35905979"/>
+          <a:chExt cx="7942729" cy="4107487"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="グループ化 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5B9D57-F73E-4158-AA5E-B0868F2D761E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="443423" y="35905979"/>
+            <a:ext cx="7942729" cy="4107487"/>
+            <a:chOff x="446425" y="26439091"/>
+            <a:chExt cx="6387479" cy="3685616"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="正方形/長方形 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6457276E-98FC-4D48-90D7-D748EE722A3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="446425" y="26439091"/>
+              <a:ext cx="6387479" cy="3685616"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                <a:t>リザルト背景（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+                <a:t>3D</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                <a:t>）</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="正方形/長方形 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF3F2FA2-E62A-473D-9132-E161603CF9F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1631758" y="28640429"/>
+              <a:ext cx="3971636" cy="523394"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>テキスト</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831435E1-0A71-46BC-AE23-7A35F8D0E020}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2836103" y="39213059"/>
+            <a:ext cx="2918459" cy="585513"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ボタン押せ押せテキスト</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365759</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF9FCF8-2BA2-48A7-A268-B2FF8F146849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="5631180"/>
+          <a:ext cx="7505699" cy="4244340"/>
+          <a:chOff x="678182" y="3154679"/>
+          <a:chExt cx="7942729" cy="3992879"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="2" name="グループ化 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3F992E-1485-43C2-B31B-608ED658D0FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="678182" y="3154679"/>
+            <a:ext cx="7942729" cy="3992879"/>
+            <a:chOff x="403861" y="10774678"/>
+            <a:chExt cx="5021581" cy="3147059"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="3" name="グループ化 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB758537-B50B-41AC-B0CA-4B4AED678863}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="403861" y="10774678"/>
+              <a:ext cx="5021581" cy="3147059"/>
+              <a:chOff x="678181" y="929638"/>
+              <a:chExt cx="4686300" cy="2827019"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="正方形/長方形 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9C44FA-E1D0-4C16-8B3D-86090551EFC3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="678181" y="929638"/>
+                <a:ext cx="4686300" cy="2827019"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>タイトル背景（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+                  <a:t>3D</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="6" name="正方形/長方形 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94BD1C17-CCF9-4364-AAC3-EEC76A8DF4F1}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2057400" y="1577340"/>
+                <a:ext cx="1897380" cy="861060"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent2"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent2"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>タイトルロゴ</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="7" name="正方形/長方形 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F17817-66E9-4F64-A691-A920D1B0BDF8}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1653540" y="2583180"/>
+                <a:ext cx="2735580" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent3">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent3"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent3"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>ゲーム開始</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="正方形/長方形 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BDDEE7B-FB36-4113-A5B5-2B62CE83EBFC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1668780" y="2994660"/>
+                <a:ext cx="2720340" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent3">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent3"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent3"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>チュートリアル</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="9" name="正方形/長方形 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50F89F1-5B14-4B14-8736-9C1E4A8BFE43}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1676400" y="3360420"/>
+                <a:ext cx="2727960" cy="289560"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent3">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent3"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent3"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                  <a:t>ランキング</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="二等辺三角形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF1F21D-E269-48B7-9A3E-FB8C575FAD38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="5400000">
+              <a:off x="1002030" y="12630150"/>
+              <a:ext cx="411480" cy="327660"/>
+            </a:xfrm>
+            <a:prstGeom prst="triangle">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="楕円 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E3F141-1648-497C-BF5F-82FDEF771C2E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6019800" y="3988534"/>
+            <a:ext cx="465513" cy="312695"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="楕円 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664240C7-2A7F-4A50-ABBC-D5B0FE06165A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6728460" y="5295900"/>
+            <a:ext cx="411480" cy="434340"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="楕円 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6BCA77-CE74-46A8-B555-529AC1D0CA4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6728460" y="5882640"/>
+            <a:ext cx="411480" cy="434340"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85828B55-66B7-472B-A7E0-FDFCF7D850E9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6743700" y="6454140"/>
+            <a:ext cx="411480" cy="434340"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="楕円 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67BBD88-EAF7-4328-A319-65AD261DA05F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1539240" y="5273040"/>
+            <a:ext cx="411480" cy="434340"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+              <a:t>6</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B48A0F-43C0-4EA1-848F-6F52E8AB42EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7078980" y="3733800"/>
+          <a:ext cx="449580" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEF4F8A-232E-41B8-A870-DDDA6351F173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7094220" y="4648200"/>
+          <a:ext cx="464820" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BFCECD-98F2-415F-89F6-91ADBF60A4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7139940" y="6934200"/>
+          <a:ext cx="464820" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D853E66-B64E-46C4-91BA-5BB605CB1D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8275320" y="8138160"/>
+          <a:ext cx="632460" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8D88B8-4D58-4084-82E5-307F9CDD81B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8298180" y="10431780"/>
+          <a:ext cx="632460" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1973580</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>46868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A660C477-FA1D-4983-8980-3EDBE85514B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="-779" t="2337" r="779" b="22858"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="9730740"/>
+          <a:ext cx="3322320" cy="2485268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379220</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>287499</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>213361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED0ED6A-F64E-4B11-B1BB-223DFEC752F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2994660" y="5692141"/>
+          <a:ext cx="439899" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBB533A-E8B2-4259-9B87-6446B3F4C72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="5570220"/>
+          <a:ext cx="617220" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD38B709-9FA5-45A8-9164-E982D5FB1FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="4876800"/>
+          <a:ext cx="617220" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61BB5A2-BEBD-4A08-806F-BFE2F5752E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="4876800"/>
+          <a:ext cx="617220" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5A779C-EE7B-496E-B6AC-400AF2FC8F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="7421880"/>
+          <a:ext cx="617220" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>281941</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15547</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C5A933-A6DE-4928-89A7-56640867B6C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="434341" y="5067300"/>
+          <a:ext cx="7063740" cy="4549447"/>
+          <a:chOff x="762001" y="5067300"/>
+          <a:chExt cx="7063740" cy="4549447"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="21" name="グループ化 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465E9D84-5450-41A5-B3EB-F62F66DC38BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="762001" y="5067300"/>
+            <a:ext cx="7063740" cy="4549447"/>
+            <a:chOff x="446425" y="26439091"/>
+            <a:chExt cx="6387479" cy="3685616"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="正方形/長方形 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022AA595-953F-476C-9566-2DCEB4C8D1E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="446425" y="26439091"/>
+              <a:ext cx="6387479" cy="3685616"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                <a:t>リザルト背景（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+                <a:t>3D</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+                <a:t>）</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="正方形/長方形 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673D52B9-A079-410F-AAF5-A154BF8D34C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625062" y="28842350"/>
+              <a:ext cx="3971636" cy="523394"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>結果テキスト</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="楕円 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD4899-90E8-4443-A010-5B94EBB56095}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3131820" y="5151120"/>
+            <a:ext cx="365760" cy="335280"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="楕円 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98101D85-F03D-4A17-8F5D-5E9591717C3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1912620" y="8077200"/>
+            <a:ext cx="365760" cy="335280"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EE9C5A-F62D-4604-93A3-A1B74AEC9BC5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2857501" y="8900160"/>
+            <a:ext cx="2918459" cy="585513"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ボタン押せ押せテキスト</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="楕円 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1B0748-BEC3-4D0C-8011-A4310F8F0514}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2689860" y="8778240"/>
+            <a:ext cx="365760" cy="335280"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193189</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>173258</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D43F47-A2AA-481C-986F-400222935AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259080" y="5760720"/>
+          <a:ext cx="7340749" cy="4219478"/>
+          <a:chOff x="446425" y="26439091"/>
+          <a:chExt cx="6387479" cy="3685616"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A2AAAC-3B55-4DD0-8BD3-1F6D4C0F5D82}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="446425" y="26439091"/>
+            <a:ext cx="6387479" cy="3685616"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>町の背景（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+              <a:t>3D</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+              <a:t>）？</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B732D75-C12F-46EF-BEBA-D12A0DB76E98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2132062" y="27025601"/>
+            <a:ext cx="2978727" cy="2161313"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ランキング</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EE70A3-D002-4A1C-8F9B-9C9E6B882BEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1614825" y="29393191"/>
+            <a:ext cx="3971636" cy="523394"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>現在のプレイのスコア</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC103B4D-1942-4DDB-8A3D-56326452D9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8054340" y="5105400"/>
+          <a:ext cx="617220" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725C20C6-316C-48C1-B6C8-92F4F345CD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8054340" y="6271260"/>
+          <a:ext cx="617220" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4326BAD7-A636-4E46-A66C-2D2670D04C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8054340" y="7650480"/>
+          <a:ext cx="617220" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1478280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2CB901-9509-46A0-9367-BA958934C865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="5783580"/>
+          <a:ext cx="365760" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1249680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E9CB22-3CC7-49E9-88BF-73300B460C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2499360" y="5768340"/>
+          <a:ext cx="365760" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E81A52-C977-40B8-88B6-647885A11A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="7947660"/>
+          <a:ext cx="365760" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5906,44 +9424,44 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
     </row>
     <row r="13" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="136"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="134"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="150"/>
     </row>
     <row r="15" spans="2:7" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="144"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="153"/>
     </row>
     <row r="16" spans="2:7" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="29" t="s">
@@ -5979,11 +9497,136 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="55.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:9" ht="18" customHeight="1">
+      <c r="B2" s="202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="203"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1">
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17.399999999999999" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17.399999999999999" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="54">
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="108">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="36">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="54.6" thickBot="1">
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB468003-60BD-4C9F-A82F-3ECBAC1187B5}">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -6008,52 +9651,52 @@
       <c r="B2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="160"/>
+      <c r="D2" s="161"/>
     </row>
     <row r="3" spans="2:12" ht="22.2" customHeight="1">
       <c r="B3" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="165"/>
+      <c r="D3" s="166"/>
     </row>
     <row r="4" spans="2:12" ht="19.8">
       <c r="B4" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="168"/>
     </row>
     <row r="5" spans="2:12" ht="20.399999999999999" thickBot="1">
       <c r="B5" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="170"/>
     </row>
     <row r="6" spans="2:12" ht="22.2" customHeight="1" thickBot="1"/>
     <row r="7" spans="2:12" ht="33" thickBot="1">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="F7" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="163"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="F7" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
       <c r="J7" s="107" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
@@ -6062,10 +9705,10 @@
       <c r="B8" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="151"/>
+      <c r="D8" s="178"/>
       <c r="F8" s="64" t="s">
         <v>42</v>
       </c>
@@ -6085,11 +9728,11 @@
       <c r="B9" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="F9" s="145" t="s">
+      <c r="D9" s="180"/>
+      <c r="F9" s="156" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="114"/>
@@ -6097,7 +9740,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="113" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
@@ -6106,57 +9749,57 @@
       <c r="B10" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="F10" s="146"/>
+      <c r="D10" s="159"/>
+      <c r="F10" s="174"/>
       <c r="G10" s="115"/>
       <c r="H10" s="55" t="s">
         <v>52</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
     </row>
     <row r="11" spans="2:12" ht="20.399999999999999" thickBot="1">
       <c r="B11" s="120"/>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="F11" s="146"/>
+      <c r="D11" s="176"/>
+      <c r="F11" s="174"/>
       <c r="G11" s="115"/>
       <c r="H11" s="55" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
     </row>
     <row r="12" spans="2:12" ht="20.399999999999999" thickBot="1">
-      <c r="F12" s="146"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="115"/>
       <c r="H12" s="55" t="s">
         <v>55</v>
       </c>
       <c r="J12" s="110" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
     </row>
     <row r="13" spans="2:12" ht="27" customHeight="1" thickBot="1">
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="157"/>
-      <c r="D13" s="158"/>
-      <c r="F13" s="147"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="F13" s="157"/>
       <c r="G13" s="116"/>
       <c r="H13" s="72" t="s">
         <v>54</v>
@@ -6166,11 +9809,11 @@
       <c r="B14" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="F14" s="145" t="s">
+      <c r="D14" s="178"/>
+      <c r="F14" s="156" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="117"/>
@@ -6186,7 +9829,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="66"/>
-      <c r="F15" s="147"/>
+      <c r="F15" s="157"/>
       <c r="G15" s="118"/>
       <c r="H15" s="52" t="s">
         <v>35</v>
@@ -6200,7 +9843,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="67"/>
-      <c r="F16" s="145" t="s">
+      <c r="F16" s="156" t="s">
         <v>43</v>
       </c>
       <c r="G16" s="117"/>
@@ -6212,11 +9855,11 @@
       <c r="B17" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="158" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="155"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="159"/>
+      <c r="F17" s="157"/>
       <c r="G17" s="118"/>
       <c r="H17" s="52" t="s">
         <v>37</v>
@@ -6226,11 +9869,11 @@
       <c r="B18" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="154" t="s">
+      <c r="C18" s="158" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="155"/>
-      <c r="F18" s="145" t="s">
+      <c r="D18" s="159"/>
+      <c r="F18" s="156" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="117"/>
@@ -6242,25 +9885,25 @@
       <c r="B19" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="149"/>
-      <c r="F19" s="146"/>
+      <c r="D19" s="176"/>
+      <c r="F19" s="174"/>
       <c r="G19" s="119"/>
       <c r="H19" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="20.399999999999999" thickBot="1">
-      <c r="F20" s="147"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="118"/>
       <c r="H20" s="52" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="19.8">
-      <c r="F21" s="145" t="s">
+      <c r="F21" s="156" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="114"/>
@@ -6269,7 +9912,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="20.399999999999999" thickBot="1">
-      <c r="F22" s="147"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="116"/>
       <c r="H22" s="52" t="s">
         <v>58</v>
@@ -6277,6 +9920,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F14:F15"/>
@@ -6293,10 +9940,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6323,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF1C7A-5504-480A-90CB-2C6AED22388D}">
   <dimension ref="B2:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6347,20 +9990,20 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="29.4" thickBot="1">
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
     </row>
     <row r="4" spans="2:17" ht="22.8" customHeight="1" thickBot="1">
       <c r="B4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -6369,13 +10012,13 @@
       <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:17" ht="22.8" customHeight="1" thickBot="1">
-      <c r="B5" s="201" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="194" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="195"/>
+      <c r="B5" s="141" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="184" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="185"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -6384,13 +10027,13 @@
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:17" ht="20.399999999999999" customHeight="1">
-      <c r="B6" s="200" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="196" t="s">
+      <c r="B6" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="197" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="197"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -6402,10 +10045,10 @@
       <c r="B7" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="C7" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="199"/>
+      <c r="D7" s="196"/>
     </row>
     <row r="8" spans="2:17" ht="18" customHeight="1"/>
     <row r="9" spans="2:17">
@@ -6418,18 +10061,18 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="2:17" ht="32.4" customHeight="1" thickBot="1">
-      <c r="B11" s="170" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
+      <c r="B11" s="186" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="188"/>
       <c r="L11" s="54"/>
       <c r="M11" s="54"/>
       <c r="N11" s="54"/>
@@ -6521,18 +10164,18 @@
     </row>
     <row r="17" spans="2:15" ht="43.8" customHeight="1" thickBot="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="187" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="188" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="190"/>
+      <c r="C17" s="136" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="189" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="191"/>
       <c r="K17" s="3"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -6541,18 +10184,18 @@
     </row>
     <row r="18" spans="2:15" ht="59.4" customHeight="1" thickBot="1">
       <c r="B18" s="19"/>
-      <c r="C18" s="191" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="202" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
+      <c r="C18" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="192" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="194"/>
       <c r="K18" s="3"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -6561,18 +10204,18 @@
     </row>
     <row r="19" spans="2:15" ht="57.6" customHeight="1" thickBot="1">
       <c r="B19" s="19"/>
-      <c r="C19" s="192" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="205" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="206"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
+      <c r="C19" s="138" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="181" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
       <c r="K19" s="3"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -6581,18 +10224,18 @@
     </row>
     <row r="20" spans="2:15" ht="40.799999999999997" customHeight="1" thickBot="1">
       <c r="B20" s="19"/>
-      <c r="C20" s="192" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="205" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="206"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207"/>
+      <c r="C20" s="138" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="181" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
       <c r="K20" s="3"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
@@ -6601,18 +10244,18 @@
     </row>
     <row r="21" spans="2:15" ht="60.6" customHeight="1" thickBot="1">
       <c r="B21" s="19"/>
-      <c r="C21" s="193" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="205" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
+      <c r="C21" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
       <c r="K21" s="3"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -6653,18 +10296,18 @@
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1" thickBot="1"/>
     <row r="25" spans="2:15" ht="32.4" customHeight="1" thickBot="1">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="186" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
     </row>
     <row r="26" spans="2:15" ht="45.6">
       <c r="B26" s="46" t="s">
@@ -6756,7 +10399,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="42" customHeight="1">
+    <row r="34" spans="2:15" ht="27.6" customHeight="1">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
@@ -6899,11 +10542,11 @@
       <c r="I48" s="62"/>
     </row>
     <row r="49" spans="2:15" ht="19.8" customHeight="1" thickBot="1">
-      <c r="B49" s="156" t="s">
+      <c r="B49" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="157"/>
-      <c r="D49" s="158"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="173"/>
     </row>
     <row r="50" spans="2:15" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="B50" s="48" t="s">
@@ -6983,17 +10626,17 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="2:15" ht="46.2" thickBot="1">
-      <c r="B58" s="170" t="s">
+      <c r="B58" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171"/>
-      <c r="G58" s="171"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="172"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="187"/>
+      <c r="G58" s="187"/>
+      <c r="H58" s="187"/>
+      <c r="I58" s="187"/>
+      <c r="J58" s="188"/>
     </row>
     <row r="59" spans="2:15" ht="18.600000000000001" thickBot="1">
       <c r="B59" s="63" t="s">
@@ -7038,7 +10681,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="45.6">
+    <row r="62" spans="2:15" ht="25.8" customHeight="1">
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -7222,17 +10865,17 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="2:11" ht="46.2" thickBot="1">
-      <c r="B77" s="170" t="s">
+      <c r="B77" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="171"/>
-      <c r="D77" s="171"/>
-      <c r="E77" s="171"/>
-      <c r="F77" s="171"/>
-      <c r="G77" s="171"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="172"/>
+      <c r="C77" s="187"/>
+      <c r="D77" s="187"/>
+      <c r="E77" s="187"/>
+      <c r="F77" s="187"/>
+      <c r="G77" s="187"/>
+      <c r="H77" s="187"/>
+      <c r="I77" s="187"/>
+      <c r="J77" s="188"/>
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="2:11" ht="18.600000000000001" thickBot="1">
@@ -7280,7 +10923,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="45.6">
+    <row r="81" spans="2:12" ht="30" customHeight="1">
       <c r="B81" s="19"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
@@ -7494,17 +11137,17 @@
       <c r="L97" s="59"/>
     </row>
     <row r="98" spans="2:12" ht="46.2" thickBot="1">
-      <c r="B98" s="170" t="s">
+      <c r="B98" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="171"/>
-      <c r="D98" s="171"/>
-      <c r="E98" s="171"/>
-      <c r="F98" s="171"/>
-      <c r="G98" s="171"/>
-      <c r="H98" s="171"/>
-      <c r="I98" s="171"/>
-      <c r="J98" s="172"/>
+      <c r="C98" s="187"/>
+      <c r="D98" s="187"/>
+      <c r="E98" s="187"/>
+      <c r="F98" s="187"/>
+      <c r="G98" s="187"/>
+      <c r="H98" s="187"/>
+      <c r="I98" s="187"/>
+      <c r="J98" s="188"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
     </row>
@@ -7751,17 +11394,17 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="2:11" ht="46.2" thickBot="1">
-      <c r="B119" s="170" t="s">
+      <c r="B119" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="C119" s="171"/>
-      <c r="D119" s="171"/>
-      <c r="E119" s="171"/>
-      <c r="F119" s="171"/>
-      <c r="G119" s="171"/>
-      <c r="H119" s="171"/>
-      <c r="I119" s="171"/>
-      <c r="J119" s="172"/>
+      <c r="C119" s="187"/>
+      <c r="D119" s="187"/>
+      <c r="E119" s="187"/>
+      <c r="F119" s="187"/>
+      <c r="G119" s="187"/>
+      <c r="H119" s="187"/>
+      <c r="I119" s="187"/>
+      <c r="J119" s="188"/>
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="2:11" ht="18.600000000000001" thickBot="1">
@@ -7835,7 +11478,7 @@
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
       <c r="I124" s="28" t="s">
-        <v>110</v>
+        <v>346</v>
       </c>
       <c r="J124" s="70" t="s">
         <v>109</v>
@@ -8005,17 +11648,17 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="2:11" ht="46.2" thickBot="1">
-      <c r="B140" s="170" t="s">
+      <c r="B140" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="C140" s="171"/>
-      <c r="D140" s="171"/>
-      <c r="E140" s="171"/>
-      <c r="F140" s="171"/>
-      <c r="G140" s="171"/>
-      <c r="H140" s="171"/>
-      <c r="I140" s="171"/>
-      <c r="J140" s="172"/>
+      <c r="C140" s="187"/>
+      <c r="D140" s="187"/>
+      <c r="E140" s="187"/>
+      <c r="F140" s="187"/>
+      <c r="G140" s="187"/>
+      <c r="H140" s="187"/>
+      <c r="I140" s="187"/>
+      <c r="J140" s="188"/>
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="2:11" ht="18.600000000000001" thickBot="1">
@@ -8057,10 +11700,10 @@
       <c r="G143" s="20"/>
       <c r="H143" s="20"/>
       <c r="I143" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="J143" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="J143" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="K143" s="20"/>
     </row>
@@ -8073,10 +11716,10 @@
       <c r="G144" s="20"/>
       <c r="H144" s="20"/>
       <c r="I144" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="J144" s="51" t="s">
         <v>113</v>
-      </c>
-      <c r="J144" s="51" t="s">
-        <v>114</v>
       </c>
       <c r="K144" s="44"/>
     </row>
@@ -8089,10 +11732,10 @@
       <c r="G145" s="20"/>
       <c r="H145" s="20"/>
       <c r="I145" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J145" s="70" t="s">
         <v>115</v>
-      </c>
-      <c r="J145" s="70" t="s">
-        <v>116</v>
       </c>
       <c r="K145" s="20"/>
     </row>
@@ -8269,6 +11912,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B98:J98"/>
+    <mergeCell ref="B119:J119"/>
+    <mergeCell ref="B140:J140"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="D21:J21"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B49:D49"/>
@@ -8279,14 +11930,6 @@
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B98:J98"/>
-    <mergeCell ref="B119:J119"/>
-    <mergeCell ref="B140:J140"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -8315,11 +11958,1834 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5501042F-DAB5-4AFC-92D1-6572F020859E}">
+  <dimension ref="B1:M64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B2" s="186" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="199" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="209"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="201"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="211"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="213" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="214" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="D10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="275" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="276"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="238"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1">
+      <c r="B11" s="218" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="222" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="271" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="268" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="268"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="217"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="219"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="217"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="219"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="217"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="219"/>
+      <c r="C14" s="237" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="284" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="285" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="286"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="217"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="219"/>
+      <c r="C15" s="273" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="221" t="s">
+        <v>368</v>
+      </c>
+      <c r="E15" s="206" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="206"/>
+      <c r="G15" s="270"/>
+      <c r="K15" s="212"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="219"/>
+      <c r="C16" s="273" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="221" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="206" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="206"/>
+      <c r="G16" s="270"/>
+      <c r="K16" s="212"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="219"/>
+      <c r="C17" s="223" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="272" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="224" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="242"/>
+      <c r="G17" s="252"/>
+      <c r="K17" s="212"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="219"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="252"/>
+      <c r="K18" s="212"/>
+    </row>
+    <row r="19" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B19" s="220"/>
+      <c r="C19" s="274" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="210" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="210"/>
+      <c r="G19" s="211"/>
+      <c r="K19" s="212"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="230"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="312"/>
+      <c r="G20" s="312"/>
+      <c r="K20" s="212"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="230"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="312"/>
+      <c r="F21" s="312"/>
+      <c r="G21" s="312"/>
+      <c r="K21" s="212"/>
+    </row>
+    <row r="22" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B22" s="230"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="K22" s="212"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="230"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="H23" s="199" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J23" s="248" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="249"/>
+      <c r="L23" s="249"/>
+      <c r="M23" s="250"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="230"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J24" s="251" t="s">
+        <v>320</v>
+      </c>
+      <c r="K24" s="242"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="252"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="230"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="H25" s="288"/>
+      <c r="I25" s="289" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="291" t="s">
+        <v>321</v>
+      </c>
+      <c r="K25" s="265"/>
+      <c r="L25" s="265"/>
+      <c r="M25" s="292"/>
+    </row>
+    <row r="26" spans="2:13" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="B26" s="230"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="293"/>
+      <c r="K26" s="294"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="232"/>
+    </row>
+    <row r="27" spans="2:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="K27" s="212"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="H28" s="199" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J28" s="248" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="250"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="H29" s="200"/>
+      <c r="I29" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J29" s="251" t="s">
+        <v>297</v>
+      </c>
+      <c r="K29" s="242"/>
+      <c r="L29" s="242"/>
+      <c r="M29" s="252"/>
+    </row>
+    <row r="30" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H30" s="201"/>
+      <c r="I30" s="247" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="256" t="s">
+        <v>366</v>
+      </c>
+      <c r="K30" s="257"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="258"/>
+    </row>
+    <row r="31" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="I31" s="131"/>
+    </row>
+    <row r="32" spans="2:13" ht="18" customHeight="1">
+      <c r="H32" s="233" t="s">
+        <v>303</v>
+      </c>
+      <c r="I32" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" s="248" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
+      <c r="M32" s="250"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="H33" s="234"/>
+      <c r="I33" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" s="251" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" s="242"/>
+      <c r="L33" s="242"/>
+      <c r="M33" s="252"/>
+    </row>
+    <row r="34" spans="2:13" ht="18" customHeight="1">
+      <c r="H34" s="234"/>
+      <c r="I34" s="245" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="253" t="s">
+        <v>367</v>
+      </c>
+      <c r="K34" s="224"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="227"/>
+    </row>
+    <row r="35" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H35" s="235"/>
+      <c r="I35" s="246"/>
+      <c r="J35" s="254"/>
+      <c r="K35" s="255"/>
+      <c r="L35" s="255"/>
+      <c r="M35" s="229"/>
+    </row>
+    <row r="36" spans="2:13" ht="18.600000000000001" thickBot="1"/>
+    <row r="37" spans="2:13" ht="18" customHeight="1">
+      <c r="H37" s="233" t="s">
+        <v>304</v>
+      </c>
+      <c r="I37" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" s="248" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" s="249"/>
+      <c r="L37" s="249"/>
+      <c r="M37" s="250"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="H38" s="234"/>
+      <c r="I38" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38" s="251" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" s="242"/>
+      <c r="L38" s="242"/>
+      <c r="M38" s="252"/>
+    </row>
+    <row r="39" spans="2:13" ht="18" customHeight="1">
+      <c r="H39" s="234"/>
+      <c r="I39" s="245" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="253" t="s">
+        <v>367</v>
+      </c>
+      <c r="K39" s="224"/>
+      <c r="L39" s="224"/>
+      <c r="M39" s="227"/>
+    </row>
+    <row r="40" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H40" s="235"/>
+      <c r="I40" s="246"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="255"/>
+      <c r="L40" s="255"/>
+      <c r="M40" s="229"/>
+    </row>
+    <row r="41" spans="2:13" ht="18.600000000000001" thickBot="1"/>
+    <row r="42" spans="2:13" ht="18" customHeight="1">
+      <c r="H42" s="233" t="s">
+        <v>306</v>
+      </c>
+      <c r="I42" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" s="248" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" s="249"/>
+      <c r="L42" s="249"/>
+      <c r="M42" s="250"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="H43" s="234"/>
+      <c r="I43" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J43" s="251" t="s">
+        <v>318</v>
+      </c>
+      <c r="K43" s="242"/>
+      <c r="L43" s="242"/>
+      <c r="M43" s="252"/>
+    </row>
+    <row r="44" spans="2:13" ht="18" customHeight="1">
+      <c r="H44" s="234"/>
+      <c r="I44" s="245" t="s">
+        <v>85</v>
+      </c>
+      <c r="J44" s="253" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" s="224"/>
+      <c r="L44" s="224"/>
+      <c r="M44" s="227"/>
+    </row>
+    <row r="45" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H45" s="235"/>
+      <c r="I45" s="246"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="255"/>
+      <c r="M45" s="229"/>
+    </row>
+    <row r="46" spans="2:13" ht="18.600000000000001" thickBot="1"/>
+    <row r="47" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H47" s="233" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J47" s="248" t="s">
+        <v>323</v>
+      </c>
+      <c r="K47" s="249"/>
+      <c r="L47" s="249"/>
+      <c r="M47" s="250"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="278" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="279"/>
+      <c r="D48" s="18"/>
+      <c r="H48" s="234"/>
+      <c r="I48" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J48" s="251" t="s">
+        <v>319</v>
+      </c>
+      <c r="K48" s="242"/>
+      <c r="L48" s="242"/>
+      <c r="M48" s="252"/>
+    </row>
+    <row r="49" spans="2:13" ht="18" customHeight="1" thickBot="1">
+      <c r="B49" s="280"/>
+      <c r="C49" s="281"/>
+      <c r="D49" s="3"/>
+      <c r="H49" s="234"/>
+      <c r="I49" s="289" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="253" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" s="265"/>
+      <c r="L49" s="265"/>
+      <c r="M49" s="292"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="3"/>
+      <c r="H50" s="234"/>
+      <c r="I50" s="313"/>
+      <c r="J50" s="314"/>
+      <c r="K50" s="241"/>
+      <c r="L50" s="241"/>
+      <c r="M50" s="231"/>
+    </row>
+    <row r="51" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="3"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="290"/>
+      <c r="J51" s="293"/>
+      <c r="K51" s="294"/>
+      <c r="L51" s="294"/>
+      <c r="M51" s="232"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="3"/>
+      <c r="H52" s="216"/>
+      <c r="I52" s="131"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="3"/>
+      <c r="H53" s="212"/>
+      <c r="I53" s="131"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="3"/>
+      <c r="H54" s="212"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="215"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="H60" s="216"/>
+      <c r="I60" s="131"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="H61" s="212"/>
+      <c r="I61" s="131"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="H62" s="212"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="215"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="J63" s="215"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="J64" s="215"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="J44:M45"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M51"/>
+    <mergeCell ref="E11:G13"/>
+    <mergeCell ref="J34:M35"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M40"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H37:H40"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC6C3C7-B878-4291-AEB1-1FCA081A0E58}">
+  <dimension ref="B1:M60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B2" s="186" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="2:11" ht="18" customHeight="1">
+      <c r="B4" s="156" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="316" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="296"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="174"/>
+      <c r="C5" s="314"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="231"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B6" s="157"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="232"/>
+    </row>
+    <row r="7" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="8" spans="2:11">
+      <c r="B8" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="213" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B9" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="214" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="D11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="275" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="276"/>
+      <c r="G11" s="277"/>
+      <c r="H11" s="238"/>
+    </row>
+    <row r="12" spans="2:11" ht="18" customHeight="1">
+      <c r="B12" s="156" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="222" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="271" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="268" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="217"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="174"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="217"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="174"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="217"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="174"/>
+      <c r="C15" s="237" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="284" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="285" t="s">
+        <v>316</v>
+      </c>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="217"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="174"/>
+      <c r="C16" s="273" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="221" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="260" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" s="261"/>
+      <c r="G16" s="159"/>
+      <c r="K16" s="212"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="174"/>
+      <c r="C17" s="273" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="221" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="260" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="261"/>
+      <c r="G17" s="159"/>
+      <c r="K17" s="212"/>
+    </row>
+    <row r="18" spans="2:13" ht="18" customHeight="1">
+      <c r="B18" s="174"/>
+      <c r="C18" s="237" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="285" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="286"/>
+      <c r="G18" s="287"/>
+      <c r="K18" s="212"/>
+    </row>
+    <row r="19" spans="2:13" ht="18" customHeight="1" thickBot="1">
+      <c r="B19" s="157"/>
+      <c r="C19" s="274" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="298" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="299"/>
+      <c r="G19" s="176"/>
+      <c r="K19" s="212"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="230"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="K20" s="212"/>
+    </row>
+    <row r="21" spans="2:13" ht="19.2" customHeight="1" thickBot="1">
+      <c r="K21" s="212"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="H22" s="199" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J22" s="248" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" s="249"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="250"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="H23" s="200"/>
+      <c r="I23" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J23" s="251" t="s">
+        <v>320</v>
+      </c>
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="252"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="H24" s="288"/>
+      <c r="I24" s="289" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="291" t="s">
+        <v>322</v>
+      </c>
+      <c r="K24" s="265"/>
+      <c r="L24" s="265"/>
+      <c r="M24" s="292"/>
+    </row>
+    <row r="25" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H25" s="201"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="232"/>
+    </row>
+    <row r="26" spans="2:13" ht="18" customHeight="1" thickBot="1">
+      <c r="H26" s="282"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="283"/>
+      <c r="K26" s="283"/>
+      <c r="L26" s="283"/>
+      <c r="M26" s="283"/>
+    </row>
+    <row r="27" spans="2:13" ht="18" customHeight="1">
+      <c r="H27" s="225" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" s="303" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="300" t="s">
+        <v>326</v>
+      </c>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="250"/>
+    </row>
+    <row r="28" spans="2:13" ht="18" customHeight="1">
+      <c r="H28" s="307"/>
+      <c r="I28" s="289" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28" s="291" t="s">
+        <v>325</v>
+      </c>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="309"/>
+    </row>
+    <row r="29" spans="2:13" ht="18" customHeight="1">
+      <c r="H29" s="226"/>
+      <c r="I29" s="308"/>
+      <c r="J29" s="310"/>
+      <c r="K29" s="264"/>
+      <c r="L29" s="264"/>
+      <c r="M29" s="311"/>
+    </row>
+    <row r="30" spans="2:13" ht="18" customHeight="1">
+      <c r="H30" s="226"/>
+      <c r="I30" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="301" t="s">
+        <v>365</v>
+      </c>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="227"/>
+    </row>
+    <row r="31" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H31" s="228"/>
+      <c r="I31" s="306"/>
+      <c r="J31" s="302"/>
+      <c r="K31" s="255"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="229"/>
+    </row>
+    <row r="32" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="H32" s="282"/>
+      <c r="I32" s="259"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="240"/>
+    </row>
+    <row r="33" spans="8:13" ht="18" customHeight="1">
+      <c r="H33" s="225" t="s">
+        <v>328</v>
+      </c>
+      <c r="I33" s="303" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" s="300" t="s">
+        <v>330</v>
+      </c>
+      <c r="K33" s="249"/>
+      <c r="L33" s="249"/>
+      <c r="M33" s="250"/>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34" s="226"/>
+      <c r="I34" s="304" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" s="262" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" s="242"/>
+      <c r="L34" s="242"/>
+      <c r="M34" s="252"/>
+    </row>
+    <row r="35" spans="8:13" ht="18" customHeight="1">
+      <c r="H35" s="226"/>
+      <c r="I35" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="301" t="s">
+        <v>364</v>
+      </c>
+      <c r="K35" s="224"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="227"/>
+    </row>
+    <row r="36" spans="8:13">
+      <c r="H36" s="226"/>
+      <c r="I36" s="305"/>
+      <c r="J36" s="301"/>
+      <c r="K36" s="224"/>
+      <c r="L36" s="224"/>
+      <c r="M36" s="227"/>
+    </row>
+    <row r="37" spans="8:13" ht="18.600000000000001" thickBot="1">
+      <c r="H37" s="228"/>
+      <c r="I37" s="306"/>
+      <c r="J37" s="302"/>
+      <c r="K37" s="255"/>
+      <c r="L37" s="255"/>
+      <c r="M37" s="229"/>
+    </row>
+    <row r="38" spans="8:13" ht="18" customHeight="1">
+      <c r="H38" s="282"/>
+      <c r="I38" s="230"/>
+      <c r="J38" s="283"/>
+      <c r="K38" s="283"/>
+      <c r="L38" s="283"/>
+      <c r="M38" s="283"/>
+    </row>
+    <row r="39" spans="8:13">
+      <c r="H39" s="282"/>
+      <c r="I39" s="230"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="283"/>
+      <c r="M39" s="283"/>
+    </row>
+    <row r="40" spans="8:13" ht="18" customHeight="1">
+      <c r="H40" s="282"/>
+      <c r="I40" s="259"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="240"/>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
+    </row>
+    <row r="41" spans="8:13">
+      <c r="H41" s="282"/>
+      <c r="I41" s="259"/>
+      <c r="J41" s="240"/>
+      <c r="K41" s="240"/>
+      <c r="L41" s="240"/>
+      <c r="M41" s="240"/>
+    </row>
+    <row r="42" spans="8:13">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" spans="8:13">
+      <c r="H43" s="282"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="283"/>
+      <c r="M43" s="283"/>
+    </row>
+    <row r="44" spans="8:13">
+      <c r="H44" s="282"/>
+      <c r="I44" s="230"/>
+      <c r="J44" s="283"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="283"/>
+      <c r="M44" s="283"/>
+    </row>
+    <row r="45" spans="8:13" ht="18" customHeight="1">
+      <c r="H45" s="282"/>
+      <c r="I45" s="259"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="240"/>
+      <c r="L45" s="240"/>
+      <c r="M45" s="240"/>
+    </row>
+    <row r="46" spans="8:13">
+      <c r="H46" s="282"/>
+      <c r="I46" s="259"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="240"/>
+      <c r="L46" s="240"/>
+      <c r="M46" s="240"/>
+    </row>
+    <row r="47" spans="8:13">
+      <c r="H47" s="282"/>
+      <c r="I47" s="259"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="240"/>
+      <c r="L47" s="240"/>
+      <c r="M47" s="240"/>
+    </row>
+    <row r="48" spans="8:13">
+      <c r="H48" s="216"/>
+      <c r="I48" s="131"/>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49" s="212"/>
+      <c r="I49" s="131"/>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50" s="212"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="215"/>
+    </row>
+    <row r="56" spans="8:10">
+      <c r="H56" s="216"/>
+      <c r="I56" s="131"/>
+    </row>
+    <row r="57" spans="8:10">
+      <c r="H57" s="212"/>
+      <c r="I57" s="131"/>
+    </row>
+    <row r="58" spans="8:10">
+      <c r="H58" s="212"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="215"/>
+    </row>
+    <row r="59" spans="8:10">
+      <c r="J59" s="215"/>
+    </row>
+    <row r="60" spans="8:10">
+      <c r="J60" s="215"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:K6"/>
+    <mergeCell ref="J35:M37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="H33:H37"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:M31"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:M25"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:G14"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:M29"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAAE136-DC6D-44EE-A35E-D2BCED2F67CE}">
+  <dimension ref="B1:O64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.296875" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="2" spans="2:11" ht="46.2" thickBot="1">
+      <c r="B2" s="186" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="199" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="207" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="209"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B5" s="201"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="211"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.600000000000001" thickBot="1"/>
+    <row r="7" spans="2:11">
+      <c r="B7" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="213" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="B8" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="214" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18.600000000000001" customHeight="1" thickBot="1"/>
+    <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1">
+      <c r="D10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="275" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="276"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="238"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" customHeight="1">
+      <c r="B11" s="156" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="222" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="271" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="268" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="268"/>
+      <c r="G11" s="269"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="174"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="227"/>
+    </row>
+    <row r="13" spans="2:11" ht="18" customHeight="1">
+      <c r="B13" s="174"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="227"/>
+    </row>
+    <row r="14" spans="2:11" ht="18" customHeight="1">
+      <c r="B14" s="174"/>
+      <c r="C14" s="237" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="284" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="285" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="286"/>
+      <c r="G14" s="287"/>
+    </row>
+    <row r="15" spans="2:11" ht="18" customHeight="1">
+      <c r="B15" s="174"/>
+      <c r="C15" s="273" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="221" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="260" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="261"/>
+      <c r="G15" s="159"/>
+    </row>
+    <row r="16" spans="2:11" ht="18" customHeight="1">
+      <c r="B16" s="174"/>
+      <c r="C16" s="273" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="221" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="260" t="s">
+        <v>353</v>
+      </c>
+      <c r="F16" s="261"/>
+      <c r="G16" s="159"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1">
+      <c r="B17" s="174"/>
+      <c r="C17" s="326" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="317" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="322" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="266"/>
+      <c r="G17" s="323"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1">
+      <c r="B18" s="174"/>
+      <c r="C18" s="297"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="324"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="325"/>
+    </row>
+    <row r="19" spans="2:15" ht="18" customHeight="1">
+      <c r="B19" s="174"/>
+      <c r="C19" s="273" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="221" t="s">
+        <v>356</v>
+      </c>
+      <c r="E19" s="260" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="261"/>
+      <c r="G19" s="159"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" customHeight="1">
+      <c r="B20" s="174"/>
+      <c r="C20" s="237" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="285" t="s">
+        <v>343</v>
+      </c>
+      <c r="F20" s="286"/>
+      <c r="G20" s="287"/>
+      <c r="J20" s="230"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="312"/>
+      <c r="N20" s="312"/>
+      <c r="O20" s="312"/>
+    </row>
+    <row r="21" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B21" s="157"/>
+      <c r="C21" s="274" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="298" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="299"/>
+      <c r="G21" s="176"/>
+      <c r="J21" s="230"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="312"/>
+      <c r="N21" s="312"/>
+      <c r="O21" s="312"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" customHeight="1">
+      <c r="B22" s="230"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="J22" s="230"/>
+      <c r="K22" s="239"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="312"/>
+      <c r="N22" s="312"/>
+      <c r="O22" s="312"/>
+    </row>
+    <row r="23" spans="2:15" ht="19.2" customHeight="1" thickBot="1">
+      <c r="K23" s="212"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="H24" s="199" t="s">
+        <v>312</v>
+      </c>
+      <c r="I24" s="243" t="s">
+        <v>295</v>
+      </c>
+      <c r="J24" s="248" t="s">
+        <v>324</v>
+      </c>
+      <c r="K24" s="249"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="250"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="H25" s="200"/>
+      <c r="I25" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="J25" s="251" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="242"/>
+      <c r="L25" s="242"/>
+      <c r="M25" s="252"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="H26" s="288"/>
+      <c r="I26" s="289" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="291" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" s="265"/>
+      <c r="L26" s="265"/>
+      <c r="M26" s="292"/>
+    </row>
+    <row r="27" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="H27" s="201"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="293"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="232"/>
+    </row>
+    <row r="28" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="H28" s="282"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="283"/>
+      <c r="K28" s="283"/>
+      <c r="L28" s="283"/>
+      <c r="M28" s="283"/>
+    </row>
+    <row r="29" spans="2:15" ht="18" customHeight="1">
+      <c r="H29" s="225" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="303" t="s">
+        <v>295</v>
+      </c>
+      <c r="J29" s="300" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" s="249"/>
+      <c r="L29" s="249"/>
+      <c r="M29" s="250"/>
+    </row>
+    <row r="30" spans="2:15" ht="18" customHeight="1">
+      <c r="H30" s="226"/>
+      <c r="I30" s="315" t="s">
+        <v>296</v>
+      </c>
+      <c r="J30" s="301" t="s">
+        <v>354</v>
+      </c>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="227"/>
+    </row>
+    <row r="31" spans="2:15" ht="18" customHeight="1">
+      <c r="H31" s="226"/>
+      <c r="I31" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="301" t="s">
+        <v>362</v>
+      </c>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="227"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="H32" s="226"/>
+      <c r="I32" s="305"/>
+      <c r="J32" s="301"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="227"/>
+    </row>
+    <row r="33" spans="8:13">
+      <c r="H33" s="226"/>
+      <c r="I33" s="305"/>
+      <c r="J33" s="301"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="227"/>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34" s="319"/>
+      <c r="I34" s="289"/>
+      <c r="J34" s="320"/>
+      <c r="K34" s="321"/>
+      <c r="L34" s="321"/>
+      <c r="M34" s="236"/>
+    </row>
+    <row r="35" spans="8:13">
+      <c r="H35" s="319"/>
+      <c r="I35" s="289"/>
+      <c r="J35" s="320"/>
+      <c r="K35" s="321"/>
+      <c r="L35" s="321"/>
+      <c r="M35" s="236"/>
+    </row>
+    <row r="36" spans="8:13" ht="18.600000000000001" thickBot="1">
+      <c r="H36" s="228"/>
+      <c r="I36" s="306"/>
+      <c r="J36" s="302"/>
+      <c r="K36" s="255"/>
+      <c r="L36" s="255"/>
+      <c r="M36" s="229"/>
+    </row>
+    <row r="37" spans="8:13" ht="18" customHeight="1" thickBot="1">
+      <c r="H37" s="282"/>
+      <c r="I37" s="259"/>
+      <c r="J37" s="240"/>
+      <c r="K37" s="240"/>
+      <c r="L37" s="240"/>
+      <c r="M37" s="240"/>
+    </row>
+    <row r="38" spans="8:13">
+      <c r="H38" s="225" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="303" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="300" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" s="249"/>
+      <c r="L38" s="249"/>
+      <c r="M38" s="250"/>
+    </row>
+    <row r="39" spans="8:13" ht="18" customHeight="1">
+      <c r="H39" s="226"/>
+      <c r="I39" s="304" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39" s="262" t="s">
+        <v>358</v>
+      </c>
+      <c r="K39" s="242"/>
+      <c r="L39" s="242"/>
+      <c r="M39" s="252"/>
+    </row>
+    <row r="40" spans="8:13">
+      <c r="H40" s="226"/>
+      <c r="I40" s="305" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="301" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" s="224"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="227"/>
+    </row>
+    <row r="41" spans="8:13">
+      <c r="H41" s="226"/>
+      <c r="I41" s="305"/>
+      <c r="J41" s="301"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="227"/>
+    </row>
+    <row r="42" spans="8:13" ht="18" customHeight="1" thickBot="1">
+      <c r="H42" s="228"/>
+      <c r="I42" s="306"/>
+      <c r="J42" s="302"/>
+      <c r="K42" s="255"/>
+      <c r="L42" s="255"/>
+      <c r="M42" s="229"/>
+    </row>
+    <row r="43" spans="8:13">
+      <c r="H43" s="282"/>
+      <c r="I43" s="230"/>
+      <c r="J43" s="283"/>
+      <c r="K43" s="283"/>
+      <c r="L43" s="283"/>
+      <c r="M43" s="283"/>
+    </row>
+    <row r="44" spans="8:13" ht="18" customHeight="1">
+      <c r="H44" s="282"/>
+      <c r="I44" s="259"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="240"/>
+      <c r="M44" s="240"/>
+    </row>
+    <row r="45" spans="8:13">
+      <c r="H45" s="282"/>
+      <c r="I45" s="259"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="240"/>
+      <c r="L45" s="240"/>
+      <c r="M45" s="240"/>
+    </row>
+    <row r="46" spans="8:13">
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="8:13">
+      <c r="H47" s="282"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="283"/>
+      <c r="K47" s="283"/>
+      <c r="L47" s="283"/>
+      <c r="M47" s="283"/>
+    </row>
+    <row r="48" spans="8:13">
+      <c r="H48" s="282"/>
+      <c r="I48" s="230"/>
+      <c r="J48" s="283"/>
+      <c r="K48" s="283"/>
+      <c r="L48" s="283"/>
+      <c r="M48" s="283"/>
+    </row>
+    <row r="49" spans="8:13" ht="18" customHeight="1">
+      <c r="H49" s="282"/>
+      <c r="I49" s="259"/>
+      <c r="J49" s="240"/>
+      <c r="K49" s="240"/>
+      <c r="L49" s="240"/>
+      <c r="M49" s="240"/>
+    </row>
+    <row r="50" spans="8:13">
+      <c r="H50" s="282"/>
+      <c r="I50" s="259"/>
+      <c r="J50" s="240"/>
+      <c r="K50" s="240"/>
+      <c r="L50" s="240"/>
+      <c r="M50" s="240"/>
+    </row>
+    <row r="51" spans="8:13">
+      <c r="H51" s="282"/>
+      <c r="I51" s="259"/>
+      <c r="J51" s="240"/>
+      <c r="K51" s="240"/>
+      <c r="L51" s="240"/>
+      <c r="M51" s="240"/>
+    </row>
+    <row r="52" spans="8:13">
+      <c r="H52" s="216"/>
+      <c r="I52" s="131"/>
+    </row>
+    <row r="53" spans="8:13">
+      <c r="H53" s="212"/>
+      <c r="I53" s="131"/>
+    </row>
+    <row r="54" spans="8:13">
+      <c r="H54" s="212"/>
+      <c r="I54" s="131"/>
+      <c r="J54" s="215"/>
+    </row>
+    <row r="60" spans="8:13">
+      <c r="H60" s="216"/>
+      <c r="I60" s="131"/>
+    </row>
+    <row r="61" spans="8:13">
+      <c r="H61" s="212"/>
+      <c r="I61" s="131"/>
+    </row>
+    <row r="62" spans="8:13">
+      <c r="H62" s="212"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="215"/>
+    </row>
+    <row r="63" spans="8:13">
+      <c r="J63" s="215"/>
+    </row>
+    <row r="64" spans="8:13">
+      <c r="J64" s="215"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:M36"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="J26:M27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:M42"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:K5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE410A00-953D-4970-82BB-A8901ADF3948}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8331,11 +13797,11 @@
   <sheetData>
     <row r="1" spans="2:11" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:11" ht="33" thickBot="1">
-      <c r="B2" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
+      <c r="B2" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="164"/>
     </row>
     <row r="3" spans="2:11" ht="46.2" thickBot="1">
       <c r="B3" s="34" t="s">
@@ -8356,7 +13822,7 @@
       <c r="K3" s="54"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="199" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="35"/>
@@ -8365,35 +13831,35 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="177"/>
+      <c r="B5" s="200"/>
       <c r="C5" s="24"/>
       <c r="D5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="177"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="24"/>
       <c r="D6" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="177"/>
+      <c r="B7" s="200"/>
       <c r="C7" s="24"/>
       <c r="D7" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="178"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="25"/>
       <c r="D8" s="42" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="199" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="36"/>
@@ -8402,14 +13868,14 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B10" s="178"/>
+      <c r="B10" s="201"/>
       <c r="C10" s="37"/>
       <c r="D10" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="199" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="36"/>
@@ -8418,14 +13884,14 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B12" s="178"/>
+      <c r="B12" s="201"/>
       <c r="C12" s="37"/>
       <c r="D12" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="199" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="36"/>
@@ -8434,21 +13900,21 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="177"/>
+      <c r="B14" s="200"/>
       <c r="C14" s="31"/>
       <c r="D14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="178"/>
+      <c r="B15" s="201"/>
       <c r="C15" s="37"/>
       <c r="D15" s="26" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="199" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="35"/>
@@ -8456,109 +13922,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="18.600000000000001" thickBot="1">
-      <c r="B17" s="178"/>
+    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1">
+      <c r="B17" s="201"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="18.600000000000001" thickBot="1"/>
-    <row r="21" spans="2:11" ht="46.2" thickBot="1">
-      <c r="B21" s="170" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="172"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="174" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="173"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="173" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="173"/>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="173"/>
-      <c r="C28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="173"/>
-      <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="173"/>
-      <c r="C30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:K24"/>
-    <mergeCell ref="B26:B30"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B10"/>
@@ -8572,11 +13944,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F04AE7-E68C-4947-B5A3-0C822BCC7791}">
   <dimension ref="B2:J156"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
@@ -8597,7 +13969,7 @@
     </row>
     <row r="3" spans="2:10" ht="33" thickBot="1">
       <c r="B3" s="107" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" s="73"/>
     </row>
@@ -8608,37 +13980,37 @@
     </row>
     <row r="5" spans="2:10" ht="22.2">
       <c r="B5" s="108" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="22.2">
       <c r="B6" s="111" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="22.2">
       <c r="B7" s="111" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="22.8" thickBot="1">
       <c r="B8" s="112" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="18.600000000000001" thickBot="1"/>
     <row r="10" spans="2:10" ht="46.2" thickBot="1">
-      <c r="B10" s="170" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
+      <c r="B10" s="186" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="30" t="s">
@@ -8647,500 +14019,500 @@
     </row>
     <row r="12" spans="2:10" ht="22.8" thickBot="1">
       <c r="B12" s="98" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C12" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="G12" s="100" t="s">
         <v>139</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="100" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="102" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D13" s="76"/>
       <c r="E13" s="77"/>
       <c r="F13" s="101"/>
       <c r="G13" s="91" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="90" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="75"/>
       <c r="F14" s="78"/>
       <c r="G14" s="92" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="90" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E15" s="75">
         <v>0.6</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G15" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="90" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D16" s="74" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E16" s="75">
         <v>0.6</v>
       </c>
       <c r="F16" s="78"/>
       <c r="G16" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30">
       <c r="B17" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D17" s="74" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E17" s="75">
         <v>4</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="75"/>
       <c r="F18" s="78"/>
       <c r="G18" s="92" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="45.6">
       <c r="B19" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E19" s="75">
         <v>0.5</v>
       </c>
       <c r="F19" s="79" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E20" s="75">
         <v>5</v>
       </c>
       <c r="F20" s="78"/>
       <c r="G20" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D21" s="74"/>
       <c r="E21" s="75"/>
       <c r="F21" s="78"/>
       <c r="G21" s="92" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="45.6">
       <c r="B22" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E22" s="75">
         <v>1.5</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G22" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="45.6">
       <c r="B23" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E23" s="75">
         <v>0.5</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G23" s="92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E24" s="75">
         <v>0.5</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G24" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="45.6">
       <c r="B25" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E25" s="75">
         <v>3</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G25" s="92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E26" s="75">
         <v>3</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E27" s="75">
         <v>0.5</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D28" s="74"/>
       <c r="E28" s="75"/>
       <c r="F28" s="78"/>
       <c r="G28" s="92" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="75"/>
       <c r="F29" s="78"/>
       <c r="G29" s="92" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E30" s="75"/>
       <c r="F30" s="78"/>
       <c r="G30" s="92" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="45.6">
       <c r="B31" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E31" s="75">
         <v>0.3</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G31" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="60.6">
       <c r="B32" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D32" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E32" s="75">
         <v>0.5</v>
       </c>
       <c r="F32" s="79" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="30.6">
       <c r="B33" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D33" s="74" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E33" s="75">
         <v>0.3</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G33" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E34" s="75">
         <v>0.3</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G34" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D35" s="74" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E35" s="75">
         <v>0.3</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E36" s="75">
         <v>0.3</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D37" s="74" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E37" s="75">
         <v>0.3</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G37" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D38" s="74"/>
       <c r="E38" s="75"/>
       <c r="F38" s="78"/>
       <c r="G38" s="92" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D39" s="74"/>
       <c r="E39" s="75"/>
@@ -9149,24 +14521,24 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D40" s="74"/>
       <c r="E40" s="75"/>
       <c r="F40" s="78"/>
       <c r="G40" s="92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
@@ -9175,10 +14547,10 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D42" s="74"/>
       <c r="E42" s="75"/>
@@ -9187,22 +14559,22 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D43" s="74" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E43" s="75">
         <v>0.5</v>
       </c>
       <c r="F43" s="78" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G43" s="92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:10">
@@ -9215,17 +14587,17 @@
     </row>
     <row r="46" spans="2:10" ht="18.600000000000001" thickBot="1"/>
     <row r="47" spans="2:10" ht="46.2" thickBot="1">
-      <c r="B47" s="170" t="s">
-        <v>211</v>
-      </c>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="172"/>
+      <c r="B47" s="186" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="187"/>
+      <c r="D47" s="187"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="188"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="30" t="s">
@@ -9234,339 +14606,339 @@
     </row>
     <row r="49" spans="2:5" ht="22.8" thickBot="1">
       <c r="B49" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="94" t="s">
+      <c r="E49" s="95" t="s">
         <v>139</v>
-      </c>
-      <c r="E49" s="95" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="89" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D50" s="86" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E50" s="91"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E51" s="92"/>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D52" s="88" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E52" s="92"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E53" s="92"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E54" s="92"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="90" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D55" s="88" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E55" s="92"/>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="90" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E56" s="92"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="90" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C57" s="74" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D57" s="87" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E57" s="92"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D58" s="87" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E58" s="92"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D59" s="87" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E59" s="92"/>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D60" s="87" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E60" s="92"/>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D61" s="87" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E61" s="92"/>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D62" s="88" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E62" s="92"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C63" s="74" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D63" s="87" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E63" s="92"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C64" s="74" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D64" s="87" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E64" s="92"/>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C65" s="74" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D65" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E65" s="92"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C66" s="74" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D66" s="87" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E66" s="92"/>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C67" s="74" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D67" s="87" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E67" s="92"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C68" s="74" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D68" s="87" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E68" s="92"/>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C69" s="74" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D69" s="87" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E69" s="92"/>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C70" s="74" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D70" s="88" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E70" s="92"/>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C71" s="74" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D71" s="88" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E71" s="92"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C72" s="74" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D72" s="87" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E72" s="92"/>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C73" s="74" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D73" s="87" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E73" s="92"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C74" s="74" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D74" s="87" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E74" s="92"/>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C75" s="74" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D75" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E75" s="92"/>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="90" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C76" s="74" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D76" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E76" s="92"/>
     </row>
@@ -9574,7 +14946,7 @@
       <c r="B77" s="90"/>
       <c r="C77" s="74"/>
       <c r="D77" s="79" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E77" s="92"/>
     </row>
@@ -9610,17 +14982,17 @@
     </row>
     <row r="83" spans="2:10" ht="18.600000000000001" thickBot="1"/>
     <row r="84" spans="2:10" ht="46.2" thickBot="1">
-      <c r="B84" s="170" t="s">
-        <v>262</v>
-      </c>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
-      <c r="G84" s="171"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="172"/>
+      <c r="B84" s="186" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
+      <c r="G84" s="187"/>
+      <c r="H84" s="187"/>
+      <c r="I84" s="187"/>
+      <c r="J84" s="188"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="30" t="s">
@@ -9629,56 +15001,56 @@
     </row>
     <row r="86" spans="2:10" ht="22.8" thickBot="1">
       <c r="B86" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="D86" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="E86" s="94" t="s">
+      <c r="F86" s="95" t="s">
         <v>139</v>
-      </c>
-      <c r="F86" s="95" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="89" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C87" s="89" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D87" s="84" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E87" s="86"/>
       <c r="F87" s="91"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="74" t="s">
         <v>271</v>
-      </c>
-      <c r="C88" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="74" t="s">
-        <v>279</v>
       </c>
       <c r="E88" s="87"/>
       <c r="F88" s="92"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="90" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C89" s="90" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E89" s="88"/>
       <c r="F89" s="92"/>
@@ -9895,17 +15267,17 @@
     </row>
     <row r="120" spans="2:10" ht="18.600000000000001" thickBot="1"/>
     <row r="121" spans="2:10" ht="39" customHeight="1" thickBot="1">
-      <c r="B121" s="170" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="171"/>
-      <c r="D121" s="171"/>
-      <c r="E121" s="171"/>
-      <c r="F121" s="171"/>
-      <c r="G121" s="171"/>
-      <c r="H121" s="171"/>
-      <c r="I121" s="171"/>
-      <c r="J121" s="172"/>
+      <c r="B121" s="186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" s="187"/>
+      <c r="D121" s="187"/>
+      <c r="E121" s="187"/>
+      <c r="F121" s="187"/>
+      <c r="G121" s="187"/>
+      <c r="H121" s="187"/>
+      <c r="I121" s="187"/>
+      <c r="J121" s="188"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="30" t="s">
@@ -9914,24 +15286,24 @@
     </row>
     <row r="123" spans="2:10" ht="22.8" thickBot="1">
       <c r="B123" s="93" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C123" s="94" t="s">
         <v>44</v>
       </c>
       <c r="D123" s="94" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E123" s="95" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="89" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C124" s="84" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D124" s="86"/>
       <c r="E124" s="91"/>
@@ -10194,7 +15566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282E3C87-DD57-4D76-AAF0-AE2B95849F8F}">
   <dimension ref="B1:F16"/>
   <sheetViews>
@@ -10212,76 +15584,76 @@
     <row r="1" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:6">
       <c r="B2" s="103" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" s="105" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="183"/>
-      <c r="F2" s="185" t="s">
-        <v>282</v>
+        <v>257</v>
+      </c>
+      <c r="E2" s="132"/>
+      <c r="F2" s="134" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="104" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="184" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="186" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="135" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="C6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -10289,51 +15661,51 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18.600000000000001" thickBot="1"/>
     <row r="10" spans="2:6" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="29" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -10341,129 +15713,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="3" width="55.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
-    <row r="2" spans="2:9" ht="18" customHeight="1">
-      <c r="B2" s="179" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:9" ht="18" customHeight="1" thickBot="1">
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="17.399999999999999" customHeight="1">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="17.399999999999999" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="54">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="108">
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="36">
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="54.6" thickBot="1">
-      <c r="B12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="C14" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>